--- a/simulations/model/single_item_drift_eccentricity_ke_ki.xlsx
+++ b/simulations/model/single_item_drift_eccentricity_ke_ki.xlsx
@@ -375,7 +375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4.38274218790437</v>
+        <v>5.562211190431128</v>
       </c>
       <c r="C2" t="n">
         <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -419,13 +419,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.546333288621042</v>
+        <v>4.16934005899725</v>
       </c>
       <c r="C3" t="n">
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -436,13 +436,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.68359937193105</v>
+        <v>1.689049512670607</v>
       </c>
       <c r="C4" t="n">
         <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -453,13 +453,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9683222217890091</v>
+        <v>6.204550462689838</v>
       </c>
       <c r="C5" t="n">
         <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -470,13 +470,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.321557845401543</v>
+        <v>0.2300556025122091</v>
       </c>
       <c r="C6" t="n">
         <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -487,13 +487,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2.153209420101518</v>
+        <v>6.632685179261387</v>
       </c>
       <c r="C7" t="n">
         <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -504,13 +504,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.596929142153812</v>
+        <v>4.824117053368383</v>
       </c>
       <c r="C8" t="n">
         <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -521,13 +521,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.591641163294327</v>
+        <v>1.69393376849456</v>
       </c>
       <c r="C9" t="n">
         <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -538,13 +538,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.030592046195437</v>
+        <v>0.5819366139760405</v>
       </c>
       <c r="C10" t="n">
         <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -555,13 +555,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.58197151856433</v>
+        <v>3.739593877554228</v>
       </c>
       <c r="C11" t="n">
         <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -572,13 +572,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.879923229630094</v>
+        <v>1.699582722457933</v>
       </c>
       <c r="C12" t="n">
         <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -589,13 +589,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.69409980540178</v>
+        <v>4.808983862467812</v>
       </c>
       <c r="C13" t="n">
         <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -606,13 +606,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>14.65600127896585</v>
+        <v>2.4672134609892</v>
       </c>
       <c r="C14" t="n">
         <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -623,13 +623,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.654158952217244</v>
+        <v>0.1478997958366222</v>
       </c>
       <c r="C15" t="n">
         <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -640,13 +640,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7.192889633185132</v>
+        <v>7.835536521412621</v>
       </c>
       <c r="C16" t="n">
         <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -657,13 +657,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>9.22433549919856</v>
+        <v>1.361603301322219</v>
       </c>
       <c r="C17" t="n">
         <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -674,13 +674,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03138391309249755</v>
+        <v>7.104177846722308</v>
       </c>
       <c r="C18" t="n">
         <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -691,13 +691,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.155863754021965</v>
+        <v>1.085865859346853</v>
       </c>
       <c r="C19" t="n">
         <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -708,13 +708,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.700033087418149</v>
+        <v>7.355040941803964</v>
       </c>
       <c r="C20" t="n">
         <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -725,13 +725,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.80311088339533</v>
+        <v>8.874489321444798</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -742,13 +742,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>8.733538114484901</v>
+        <v>7.496897071564774</v>
       </c>
       <c r="C22" t="n">
         <v>100</v>
       </c>
       <c r="D22" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -759,13 +759,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.449319998604238</v>
+        <v>9.255932633022042</v>
       </c>
       <c r="C23" t="n">
         <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -776,13 +776,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>6.566435900339002</v>
+        <v>7.115116364692483</v>
       </c>
       <c r="C24" t="n">
         <v>100</v>
       </c>
       <c r="D24" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -793,13 +793,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.766615894592263</v>
+        <v>3.549893906134315</v>
       </c>
       <c r="C25" t="n">
         <v>100</v>
       </c>
       <c r="D25" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -810,13 +810,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.661763275178203</v>
+        <v>6.132337833308043</v>
       </c>
       <c r="C26" t="n">
         <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -827,13 +827,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2.573999488050589</v>
+        <v>0.8046786350675745</v>
       </c>
       <c r="C27" t="n">
         <v>100</v>
       </c>
       <c r="D27" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -844,13 +844,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>8.134081352131545</v>
+        <v>3.338901943520824</v>
       </c>
       <c r="C28" t="n">
         <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -861,13 +861,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>5.403436089576786</v>
+        <v>3.930076686854733</v>
       </c>
       <c r="C29" t="n">
         <v>100</v>
       </c>
       <c r="D29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -878,13 +878,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>5.323344587540618</v>
+        <v>1.010531867945673</v>
       </c>
       <c r="C30" t="n">
         <v>100</v>
       </c>
       <c r="D30" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -895,13 +895,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>10.27834829335515</v>
+        <v>4.644731399500927</v>
       </c>
       <c r="C31" t="n">
         <v>100</v>
       </c>
       <c r="D31" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -912,13 +912,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7562661336935435</v>
+        <v>8.802930982927677</v>
       </c>
       <c r="C32" t="n">
         <v>100</v>
       </c>
       <c r="D32" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -929,13 +929,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.605180706440763</v>
+        <v>8.600488310061394</v>
       </c>
       <c r="C33" t="n">
         <v>100</v>
       </c>
       <c r="D33" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -946,13 +946,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2.144659385232416</v>
+        <v>7.946208455798853</v>
       </c>
       <c r="C34" t="n">
         <v>100</v>
       </c>
       <c r="D34" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -963,13 +963,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.6507997223920086</v>
+        <v>1.948243615249453</v>
       </c>
       <c r="C35" t="n">
         <v>100</v>
       </c>
       <c r="D35" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -980,13 +980,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.85733934214224</v>
+        <v>2.212732179885819</v>
       </c>
       <c r="C36" t="n">
         <v>100</v>
       </c>
       <c r="D36" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -997,13 +997,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.7515915406739</v>
+        <v>6.715924161255742</v>
       </c>
       <c r="C37" t="n">
         <v>100</v>
       </c>
       <c r="D37" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -1014,13 +1014,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.81553100331323</v>
+        <v>7.506346054462455</v>
       </c>
       <c r="C38" t="n">
         <v>100</v>
       </c>
       <c r="D38" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
@@ -1031,13 +1031,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>3.550944171470434</v>
+        <v>4.327146212456796</v>
       </c>
       <c r="C39" t="n">
         <v>100</v>
       </c>
       <c r="D39" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -1048,13 +1048,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>3.681167182665774</v>
+        <v>1.9885008716968</v>
       </c>
       <c r="C40" t="n">
         <v>100</v>
       </c>
       <c r="D40" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
@@ -1065,13 +1065,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.7155749210648708</v>
+        <v>5.564081108921414</v>
       </c>
       <c r="C41" t="n">
         <v>100</v>
       </c>
       <c r="D41" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
@@ -1082,13 +1082,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>9.592283546556985</v>
+        <v>0.7752597078244605</v>
       </c>
       <c r="C42" t="n">
         <v>100</v>
       </c>
       <c r="D42" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
@@ -1099,13 +1099,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2.290842818040545</v>
+        <v>7.253621579843639</v>
       </c>
       <c r="C43" t="n">
         <v>100</v>
       </c>
       <c r="D43" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
@@ -1116,13 +1116,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.356275709476023</v>
+        <v>1.677845146395924</v>
       </c>
       <c r="C44" t="n">
         <v>100</v>
       </c>
       <c r="D44" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -1133,13 +1133,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>9.217241200741768</v>
+        <v>5.573217222848058</v>
       </c>
       <c r="C45" t="n">
         <v>100</v>
       </c>
       <c r="D45" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
@@ -1150,13 +1150,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>8.281167641995808</v>
+        <v>2.347354941915569</v>
       </c>
       <c r="C46" t="n">
         <v>100</v>
       </c>
       <c r="D46" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
@@ -1167,13 +1167,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6924292908573193</v>
+        <v>0.6138651260239101</v>
       </c>
       <c r="C47" t="n">
         <v>100</v>
       </c>
       <c r="D47" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E47" t="b">
         <v>1</v>
@@ -1184,13 +1184,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.44892317214286</v>
+        <v>5.625774623672839</v>
       </c>
       <c r="C48" t="n">
         <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E48" t="b">
         <v>1</v>
@@ -1201,13 +1201,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.103240005716231</v>
+        <v>1.516084691697273</v>
       </c>
       <c r="C49" t="n">
         <v>100</v>
       </c>
       <c r="D49" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E49" t="b">
         <v>1</v>
@@ -1218,13 +1218,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.606324102694998</v>
+        <v>3.012257871868059</v>
       </c>
       <c r="C50" t="n">
         <v>100</v>
       </c>
       <c r="D50" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E50" t="b">
         <v>1</v>
@@ -1235,13 +1235,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.677102035465282</v>
+        <v>0.1019089315604731</v>
       </c>
       <c r="C51" t="n">
         <v>100</v>
       </c>
       <c r="D51" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
@@ -1252,13 +1252,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>10.21602093737295</v>
+        <v>2.746584876655362</v>
       </c>
       <c r="C52" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D52" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E52" t="b">
         <v>1</v>
@@ -1269,13 +1269,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.74691708194203</v>
+        <v>4.65483378937148</v>
       </c>
       <c r="C53" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D53" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E53" t="b">
         <v>1</v>
@@ -1286,13 +1286,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.791573136778283</v>
+        <v>2.424800079959937</v>
       </c>
       <c r="C54" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D54" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E54" t="b">
         <v>1</v>
@@ -1303,13 +1303,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.837736737583725</v>
+        <v>7.637006812880202</v>
       </c>
       <c r="C55" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D55" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E55" t="b">
         <v>1</v>
@@ -1320,13 +1320,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>5.226586647795443</v>
+        <v>6.13700644722752</v>
       </c>
       <c r="C56" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D56" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E56" t="b">
         <v>1</v>
@@ -1337,13 +1337,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2.931612952247264</v>
+        <v>5.133844931416832</v>
       </c>
       <c r="C57" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D57" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
@@ -1354,13 +1354,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>3.109926044959224</v>
+        <v>0.2441381161228833</v>
       </c>
       <c r="C58" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D58" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E58" t="b">
         <v>1</v>
@@ -1371,13 +1371,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2.897238724262934</v>
+        <v>3.821351352730147</v>
       </c>
       <c r="C59" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D59" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E59" t="b">
         <v>1</v>
@@ -1388,13 +1388,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>3.946142775653271</v>
+        <v>4.233023897285278</v>
       </c>
       <c r="C60" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D60" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E60" t="b">
         <v>1</v>
@@ -1405,13 +1405,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>3.369243474380966</v>
+        <v>5.720818378652581</v>
       </c>
       <c r="C61" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D61" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
@@ -1422,13 +1422,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>5.383109986206193</v>
+        <v>3.553946801963548</v>
       </c>
       <c r="C62" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D62" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
@@ -1439,13 +1439,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2.331914717352106</v>
+        <v>0.230811385683495</v>
       </c>
       <c r="C63" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D63" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E63" t="b">
         <v>1</v>
@@ -1456,13 +1456,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2.639991791041098</v>
+        <v>1.138102170448889</v>
       </c>
       <c r="C64" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D64" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E64" t="b">
         <v>1</v>
@@ -1473,13 +1473,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2.544761958109547</v>
+        <v>3.303272987586439</v>
       </c>
       <c r="C65" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D65" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E65" t="b">
         <v>1</v>
@@ -1490,13 +1490,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.980315547527027</v>
+        <v>0.7840968203935006</v>
       </c>
       <c r="C66" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D66" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E66" t="b">
         <v>1</v>
@@ -1507,13 +1507,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.546642528750567</v>
+        <v>0.8226386732314381</v>
       </c>
       <c r="C67" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D67" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E67" t="b">
         <v>1</v>
@@ -1524,13 +1524,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2.191401151060916</v>
+        <v>1.916019908614061</v>
       </c>
       <c r="C68" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D68" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E68" t="b">
         <v>1</v>
@@ -1541,13 +1541,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.052322943754945</v>
+        <v>2.811507205758886</v>
       </c>
       <c r="C69" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D69" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E69" t="b">
         <v>1</v>
@@ -1558,13 +1558,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>3.035659876907971</v>
+        <v>4.367593009404914</v>
       </c>
       <c r="C70" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D70" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E70" t="b">
         <v>1</v>
@@ -1575,13 +1575,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.243390199182642</v>
+        <v>0.2992262352672697</v>
       </c>
       <c r="C71" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D71" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E71" t="b">
         <v>1</v>
@@ -1592,13 +1592,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2.439955210805692</v>
+        <v>3.643713483275661</v>
       </c>
       <c r="C72" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D72" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E72" t="b">
         <v>1</v>
@@ -1609,13 +1609,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.25732947094562</v>
+        <v>4.399347588422984</v>
       </c>
       <c r="C73" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D73" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E73" t="b">
         <v>1</v>
@@ -1626,13 +1626,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>3.690979441422002</v>
+        <v>2.902545109421993</v>
       </c>
       <c r="C74" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D74" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E74" t="b">
         <v>1</v>
@@ -1643,13 +1643,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>5.525478366235291</v>
+        <v>4.829455972398449</v>
       </c>
       <c r="C75" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D75" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E75" t="b">
         <v>1</v>
@@ -1660,13 +1660,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>3.88283733054385</v>
+        <v>26.60703379077674</v>
       </c>
       <c r="C76" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D76" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E76" t="b">
         <v>1</v>
@@ -1677,13 +1677,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2.468211863415036</v>
+        <v>8.102604787169696</v>
       </c>
       <c r="C77" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D77" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E77" t="b">
         <v>1</v>
@@ -1694,13 +1694,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5.020265584575185</v>
+        <v>3.773958629592926</v>
       </c>
       <c r="C78" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D78" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E78" t="b">
         <v>1</v>
@@ -1711,13 +1711,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>6.629161436593563</v>
+        <v>2.273639567823125</v>
       </c>
       <c r="C79" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D79" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E79" t="b">
         <v>1</v>
@@ -1728,13 +1728,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.511103384590399</v>
+        <v>3.465167668589032</v>
       </c>
       <c r="C80" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D80" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
@@ -1745,13 +1745,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.6888756245918728</v>
+        <v>7.079802572240482</v>
       </c>
       <c r="C81" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D81" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
@@ -1762,13 +1762,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.7176703539723</v>
+        <v>12.306224284921</v>
       </c>
       <c r="C82" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D82" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E82" t="b">
         <v>1</v>
@@ -1779,13 +1779,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2.492655710230537</v>
+        <v>4.51656003271259</v>
       </c>
       <c r="C83" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D83" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E83" t="b">
         <v>1</v>
@@ -1796,13 +1796,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.45270481402241</v>
+        <v>5.070187273460647</v>
       </c>
       <c r="C84" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D84" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E84" t="b">
         <v>1</v>
@@ -1813,13 +1813,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.8946415565168309</v>
+        <v>10.48006650819065</v>
       </c>
       <c r="C85" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D85" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E85" t="b">
         <v>1</v>
@@ -1830,13 +1830,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2.290998662707779</v>
+        <v>3.663979006563068</v>
       </c>
       <c r="C86" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D86" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E86" t="b">
         <v>1</v>
@@ -1847,13 +1847,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.165073490831503</v>
+        <v>0.5183675401933954</v>
       </c>
       <c r="C87" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D87" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E87" t="b">
         <v>1</v>
@@ -1864,13 +1864,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>3.117719706363431</v>
+        <v>2.405951744964824</v>
       </c>
       <c r="C88" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D88" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E88" t="b">
         <v>1</v>
@@ -1881,13 +1881,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.94040763631142</v>
+        <v>0.07573932956057661</v>
       </c>
       <c r="C89" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D89" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E89" t="b">
         <v>1</v>
@@ -1898,13 +1898,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2.384320071534574</v>
+        <v>1.699876584097638</v>
       </c>
       <c r="C90" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D90" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E90" t="b">
         <v>1</v>
@@ -1915,13 +1915,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2.292701063271778</v>
+        <v>0.2791188190977607</v>
       </c>
       <c r="C91" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D91" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E91" t="b">
         <v>1</v>
@@ -1932,13 +1932,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.7483036834692314</v>
+        <v>5.29622626499372</v>
       </c>
       <c r="C92" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D92" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E92" t="b">
         <v>1</v>
@@ -1949,13 +1949,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.3949335939765888</v>
+        <v>1.741173664171498</v>
       </c>
       <c r="C93" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D93" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E93" t="b">
         <v>1</v>
@@ -1966,13 +1966,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>3.507626176154531</v>
+        <v>2.046263784861651</v>
       </c>
       <c r="C94" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D94" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E94" t="b">
         <v>1</v>
@@ -1983,13 +1983,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.084108289980236</v>
+        <v>1.509478471880868</v>
       </c>
       <c r="C95" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D95" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E95" t="b">
         <v>1</v>
@@ -2000,13 +2000,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>10.48894277393848</v>
+        <v>4.357891264807961</v>
       </c>
       <c r="C96" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D96" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E96" t="b">
         <v>1</v>
@@ -2017,13 +2017,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.142210772790179</v>
+        <v>9.978101737009183</v>
       </c>
       <c r="C97" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D97" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E97" t="b">
         <v>1</v>
@@ -2034,13 +2034,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.021112803448489</v>
+        <v>3.074940957972245</v>
       </c>
       <c r="C98" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D98" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E98" t="b">
         <v>1</v>
@@ -2051,13 +2051,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.80661890803529</v>
+        <v>3.459670945855891</v>
       </c>
       <c r="C99" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D99" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E99" t="b">
         <v>1</v>
@@ -2068,13 +2068,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.964108646206654</v>
+        <v>0.5272315162943073</v>
       </c>
       <c r="C100" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D100" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E100" t="b">
         <v>1</v>
@@ -2085,865 +2085,15 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.987930053448906</v>
+        <v>2.109040762846604</v>
       </c>
       <c r="C101" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="D101" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="E101" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>5.177040604975502</v>
-      </c>
-      <c r="C102" t="n">
-        <v>200</v>
-      </c>
-      <c r="D102" t="n">
-        <v>20</v>
-      </c>
-      <c r="E102" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.4947120962896463</v>
-      </c>
-      <c r="C103" t="n">
-        <v>200</v>
-      </c>
-      <c r="D103" t="n">
-        <v>20</v>
-      </c>
-      <c r="E103" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.5804338056785241</v>
-      </c>
-      <c r="C104" t="n">
-        <v>200</v>
-      </c>
-      <c r="D104" t="n">
-        <v>20</v>
-      </c>
-      <c r="E104" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>6.836780733872416</v>
-      </c>
-      <c r="C105" t="n">
-        <v>200</v>
-      </c>
-      <c r="D105" t="n">
-        <v>20</v>
-      </c>
-      <c r="E105" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>6.747452439209724</v>
-      </c>
-      <c r="C106" t="n">
-        <v>200</v>
-      </c>
-      <c r="D106" t="n">
-        <v>20</v>
-      </c>
-      <c r="E106" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>10.31022684857621</v>
-      </c>
-      <c r="C107" t="n">
-        <v>200</v>
-      </c>
-      <c r="D107" t="n">
-        <v>20</v>
-      </c>
-      <c r="E107" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>1.835884127588031</v>
-      </c>
-      <c r="C108" t="n">
-        <v>200</v>
-      </c>
-      <c r="D108" t="n">
-        <v>20</v>
-      </c>
-      <c r="E108" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>3.11288122058923</v>
-      </c>
-      <c r="C109" t="n">
-        <v>200</v>
-      </c>
-      <c r="D109" t="n">
-        <v>20</v>
-      </c>
-      <c r="E109" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>2.896201181471014</v>
-      </c>
-      <c r="C110" t="n">
-        <v>200</v>
-      </c>
-      <c r="D110" t="n">
-        <v>20</v>
-      </c>
-      <c r="E110" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.9479590284179267</v>
-      </c>
-      <c r="C111" t="n">
-        <v>200</v>
-      </c>
-      <c r="D111" t="n">
-        <v>20</v>
-      </c>
-      <c r="E111" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>6.198158976967392</v>
-      </c>
-      <c r="C112" t="n">
-        <v>200</v>
-      </c>
-      <c r="D112" t="n">
-        <v>20</v>
-      </c>
-      <c r="E112" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>12.86562355871806</v>
-      </c>
-      <c r="C113" t="n">
-        <v>200</v>
-      </c>
-      <c r="D113" t="n">
-        <v>20</v>
-      </c>
-      <c r="E113" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0.7909894799031747</v>
-      </c>
-      <c r="C114" t="n">
-        <v>200</v>
-      </c>
-      <c r="D114" t="n">
-        <v>20</v>
-      </c>
-      <c r="E114" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.5739246430327114</v>
-      </c>
-      <c r="C115" t="n">
-        <v>200</v>
-      </c>
-      <c r="D115" t="n">
-        <v>20</v>
-      </c>
-      <c r="E115" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>2.83508790282724</v>
-      </c>
-      <c r="C116" t="n">
-        <v>200</v>
-      </c>
-      <c r="D116" t="n">
-        <v>20</v>
-      </c>
-      <c r="E116" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.8935659846817714</v>
-      </c>
-      <c r="C117" t="n">
-        <v>200</v>
-      </c>
-      <c r="D117" t="n">
-        <v>20</v>
-      </c>
-      <c r="E117" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>2.808058322393919</v>
-      </c>
-      <c r="C118" t="n">
-        <v>200</v>
-      </c>
-      <c r="D118" t="n">
-        <v>20</v>
-      </c>
-      <c r="E118" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>6.245137567091973</v>
-      </c>
-      <c r="C119" t="n">
-        <v>200</v>
-      </c>
-      <c r="D119" t="n">
-        <v>20</v>
-      </c>
-      <c r="E119" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>3.456140554848076</v>
-      </c>
-      <c r="C120" t="n">
-        <v>200</v>
-      </c>
-      <c r="D120" t="n">
-        <v>20</v>
-      </c>
-      <c r="E120" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>1.00240709661</v>
-      </c>
-      <c r="C121" t="n">
-        <v>200</v>
-      </c>
-      <c r="D121" t="n">
-        <v>20</v>
-      </c>
-      <c r="E121" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.8835848168749862</v>
-      </c>
-      <c r="C122" t="n">
-        <v>200</v>
-      </c>
-      <c r="D122" t="n">
-        <v>20</v>
-      </c>
-      <c r="E122" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>4.385857713593111</v>
-      </c>
-      <c r="C123" t="n">
-        <v>200</v>
-      </c>
-      <c r="D123" t="n">
-        <v>20</v>
-      </c>
-      <c r="E123" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>3.902172990821128</v>
-      </c>
-      <c r="C124" t="n">
-        <v>200</v>
-      </c>
-      <c r="D124" t="n">
-        <v>20</v>
-      </c>
-      <c r="E124" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>2.188712669677273</v>
-      </c>
-      <c r="C125" t="n">
-        <v>200</v>
-      </c>
-      <c r="D125" t="n">
-        <v>20</v>
-      </c>
-      <c r="E125" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>9.143086777858571</v>
-      </c>
-      <c r="C126" t="n">
-        <v>200</v>
-      </c>
-      <c r="D126" t="n">
-        <v>20</v>
-      </c>
-      <c r="E126" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.4698948765779676</v>
-      </c>
-      <c r="C127" t="n">
-        <v>200</v>
-      </c>
-      <c r="D127" t="n">
-        <v>20</v>
-      </c>
-      <c r="E127" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>3.019874664564981</v>
-      </c>
-      <c r="C128" t="n">
-        <v>200</v>
-      </c>
-      <c r="D128" t="n">
-        <v>20</v>
-      </c>
-      <c r="E128" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>3.68092810306851</v>
-      </c>
-      <c r="C129" t="n">
-        <v>200</v>
-      </c>
-      <c r="D129" t="n">
-        <v>20</v>
-      </c>
-      <c r="E129" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>10.2790498377947</v>
-      </c>
-      <c r="C130" t="n">
-        <v>200</v>
-      </c>
-      <c r="D130" t="n">
-        <v>20</v>
-      </c>
-      <c r="E130" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>7.023346710902274</v>
-      </c>
-      <c r="C131" t="n">
-        <v>200</v>
-      </c>
-      <c r="D131" t="n">
-        <v>20</v>
-      </c>
-      <c r="E131" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>6.429301493303029</v>
-      </c>
-      <c r="C132" t="n">
-        <v>200</v>
-      </c>
-      <c r="D132" t="n">
-        <v>20</v>
-      </c>
-      <c r="E132" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>2.97891314870958</v>
-      </c>
-      <c r="C133" t="n">
-        <v>200</v>
-      </c>
-      <c r="D133" t="n">
-        <v>20</v>
-      </c>
-      <c r="E133" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>3.761567381529119</v>
-      </c>
-      <c r="C134" t="n">
-        <v>200</v>
-      </c>
-      <c r="D134" t="n">
-        <v>20</v>
-      </c>
-      <c r="E134" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>5.654965473777963</v>
-      </c>
-      <c r="C135" t="n">
-        <v>200</v>
-      </c>
-      <c r="D135" t="n">
-        <v>20</v>
-      </c>
-      <c r="E135" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>1.843461866387457</v>
-      </c>
-      <c r="C136" t="n">
-        <v>200</v>
-      </c>
-      <c r="D136" t="n">
-        <v>20</v>
-      </c>
-      <c r="E136" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>2.252090089505515</v>
-      </c>
-      <c r="C137" t="n">
-        <v>200</v>
-      </c>
-      <c r="D137" t="n">
-        <v>20</v>
-      </c>
-      <c r="E137" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>2.25595582777251</v>
-      </c>
-      <c r="C138" t="n">
-        <v>200</v>
-      </c>
-      <c r="D138" t="n">
-        <v>20</v>
-      </c>
-      <c r="E138" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>3.976712476368107</v>
-      </c>
-      <c r="C139" t="n">
-        <v>200</v>
-      </c>
-      <c r="D139" t="n">
-        <v>20</v>
-      </c>
-      <c r="E139" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>1.16094320832471</v>
-      </c>
-      <c r="C140" t="n">
-        <v>200</v>
-      </c>
-      <c r="D140" t="n">
-        <v>20</v>
-      </c>
-      <c r="E140" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>3.04116595843584</v>
-      </c>
-      <c r="C141" t="n">
-        <v>200</v>
-      </c>
-      <c r="D141" t="n">
-        <v>20</v>
-      </c>
-      <c r="E141" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>5.856845371891239</v>
-      </c>
-      <c r="C142" t="n">
-        <v>200</v>
-      </c>
-      <c r="D142" t="n">
-        <v>20</v>
-      </c>
-      <c r="E142" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>4.93307356906621</v>
-      </c>
-      <c r="C143" t="n">
-        <v>200</v>
-      </c>
-      <c r="D143" t="n">
-        <v>20</v>
-      </c>
-      <c r="E143" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>1.983501119531212</v>
-      </c>
-      <c r="C144" t="n">
-        <v>200</v>
-      </c>
-      <c r="D144" t="n">
-        <v>20</v>
-      </c>
-      <c r="E144" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>3.253729513737767</v>
-      </c>
-      <c r="C145" t="n">
-        <v>200</v>
-      </c>
-      <c r="D145" t="n">
-        <v>20</v>
-      </c>
-      <c r="E145" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>1.882539220990907</v>
-      </c>
-      <c r="C146" t="n">
-        <v>200</v>
-      </c>
-      <c r="D146" t="n">
-        <v>20</v>
-      </c>
-      <c r="E146" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>6.33207038499441</v>
-      </c>
-      <c r="C147" t="n">
-        <v>200</v>
-      </c>
-      <c r="D147" t="n">
-        <v>20</v>
-      </c>
-      <c r="E147" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>1.788687182924235</v>
-      </c>
-      <c r="C148" t="n">
-        <v>200</v>
-      </c>
-      <c r="D148" t="n">
-        <v>20</v>
-      </c>
-      <c r="E148" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>5.188103335495924</v>
-      </c>
-      <c r="C149" t="n">
-        <v>200</v>
-      </c>
-      <c r="D149" t="n">
-        <v>20</v>
-      </c>
-      <c r="E149" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>2.441456613891887</v>
-      </c>
-      <c r="C150" t="n">
-        <v>200</v>
-      </c>
-      <c r="D150" t="n">
-        <v>20</v>
-      </c>
-      <c r="E150" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>2.917709230482046</v>
-      </c>
-      <c r="C151" t="n">
-        <v>200</v>
-      </c>
-      <c r="D151" t="n">
-        <v>20</v>
-      </c>
-      <c r="E151" t="b">
         <v>1</v>
       </c>
     </row>

--- a/simulations/model/single_item_drift_eccentricity_ke_ki.xlsx
+++ b/simulations/model/single_item_drift_eccentricity_ke_ki.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.562211190431128</v>
+        <v>7.040707168398228</v>
       </c>
       <c r="C2" t="n">
         <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -419,13 +419,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.16934005899725</v>
+        <v>0.07576968732445266</v>
       </c>
       <c r="C3" t="n">
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -436,13 +436,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.689049512670607</v>
+        <v>0.4588920857687242</v>
       </c>
       <c r="C4" t="n">
         <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -453,13 +453,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.204550462689838</v>
+        <v>0.04129032444163272</v>
       </c>
       <c r="C5" t="n">
         <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -470,13 +470,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2300556025122091</v>
+        <v>1.961648976721477</v>
       </c>
       <c r="C6" t="n">
         <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -487,13 +487,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.632685179261387</v>
+        <v>0.03087657078415873</v>
       </c>
       <c r="C7" t="n">
         <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -504,13 +504,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.824117053368383</v>
+        <v>4.021459548926799</v>
       </c>
       <c r="C8" t="n">
         <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -521,13 +521,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.69393376849456</v>
+        <v>4.723912930787435</v>
       </c>
       <c r="C9" t="n">
         <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -538,13 +538,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5819366139760405</v>
+        <v>0.4321769967636158</v>
       </c>
       <c r="C10" t="n">
         <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -555,13 +555,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.739593877554228</v>
+        <v>12.33985699498956</v>
       </c>
       <c r="C11" t="n">
         <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -572,13 +572,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.699582722457933</v>
+        <v>6.044197382333891</v>
       </c>
       <c r="C12" t="n">
         <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -589,13 +589,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.808983862467812</v>
+        <v>1.644971210766101</v>
       </c>
       <c r="C13" t="n">
         <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -606,13 +606,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.4672134609892</v>
+        <v>2.083869970212447</v>
       </c>
       <c r="C14" t="n">
         <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -623,13 +623,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1478997958366222</v>
+        <v>1.94060650294071</v>
       </c>
       <c r="C15" t="n">
         <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -640,13 +640,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7.835536521412621</v>
+        <v>2.524402512339265</v>
       </c>
       <c r="C16" t="n">
         <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -657,13 +657,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.361603301322219</v>
+        <v>1.227232750154144</v>
       </c>
       <c r="C17" t="n">
         <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -674,13 +674,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7.104177846722308</v>
+        <v>2.192407948437705</v>
       </c>
       <c r="C18" t="n">
         <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -691,13 +691,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.085865859346853</v>
+        <v>0.02288416341534116</v>
       </c>
       <c r="C19" t="n">
         <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -708,13 +708,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.355040941803964</v>
+        <v>0.3999580608750648</v>
       </c>
       <c r="C20" t="n">
         <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -725,13 +725,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>8.874489321444798</v>
+        <v>11.31291786963374</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -742,13 +742,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.496897071564774</v>
+        <v>5.221479394415951</v>
       </c>
       <c r="C22" t="n">
         <v>100</v>
       </c>
       <c r="D22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -759,13 +759,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>9.255932633022042</v>
+        <v>4.534997717144421</v>
       </c>
       <c r="C23" t="n">
         <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -776,13 +776,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.115116364692483</v>
+        <v>4.448837305598659</v>
       </c>
       <c r="C24" t="n">
         <v>100</v>
       </c>
       <c r="D24" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -793,13 +793,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.549893906134315</v>
+        <v>3.529624589048154</v>
       </c>
       <c r="C25" t="n">
         <v>100</v>
       </c>
       <c r="D25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -810,13 +810,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.132337833308043</v>
+        <v>6.14278924954715</v>
       </c>
       <c r="C26" t="n">
         <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -827,13 +827,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8046786350675745</v>
+        <v>8.668681601696335</v>
       </c>
       <c r="C27" t="n">
         <v>100</v>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -844,13 +844,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.338901943520824</v>
+        <v>0.8509372618729287</v>
       </c>
       <c r="C28" t="n">
         <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -861,13 +861,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.930076686854733</v>
+        <v>3.237909604887051</v>
       </c>
       <c r="C29" t="n">
         <v>100</v>
       </c>
       <c r="D29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -878,13 +878,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.010531867945673</v>
+        <v>2.379540543055498</v>
       </c>
       <c r="C30" t="n">
         <v>100</v>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -895,13 +895,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.644731399500927</v>
+        <v>7.082897042347469</v>
       </c>
       <c r="C31" t="n">
         <v>100</v>
       </c>
       <c r="D31" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -912,13 +912,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>8.802930982927677</v>
+        <v>6.894621874104416</v>
       </c>
       <c r="C32" t="n">
         <v>100</v>
       </c>
       <c r="D32" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -929,13 +929,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>8.600488310061394</v>
+        <v>0.9882509279470355</v>
       </c>
       <c r="C33" t="n">
         <v>100</v>
       </c>
       <c r="D33" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -946,13 +946,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7.946208455798853</v>
+        <v>1.904105231745376</v>
       </c>
       <c r="C34" t="n">
         <v>100</v>
       </c>
       <c r="D34" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -963,13 +963,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.948243615249453</v>
+        <v>2.132458185418272</v>
       </c>
       <c r="C35" t="n">
         <v>100</v>
       </c>
       <c r="D35" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -980,13 +980,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2.212732179885819</v>
+        <v>3.970925218725313</v>
       </c>
       <c r="C36" t="n">
         <v>100</v>
       </c>
       <c r="D36" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -997,13 +997,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>6.715924161255742</v>
+        <v>1.710059711018545</v>
       </c>
       <c r="C37" t="n">
         <v>100</v>
       </c>
       <c r="D37" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -1014,13 +1014,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.506346054462455</v>
+        <v>1.265247531331312</v>
       </c>
       <c r="C38" t="n">
         <v>100</v>
       </c>
       <c r="D38" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
@@ -1031,13 +1031,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.327146212456796</v>
+        <v>1.308442907041382</v>
       </c>
       <c r="C39" t="n">
         <v>100</v>
       </c>
       <c r="D39" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -1048,13 +1048,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.9885008716968</v>
+        <v>0.242391361522067</v>
       </c>
       <c r="C40" t="n">
         <v>100</v>
       </c>
       <c r="D40" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
@@ -1065,13 +1065,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>5.564081108921414</v>
+        <v>3.538949896918382</v>
       </c>
       <c r="C41" t="n">
         <v>100</v>
       </c>
       <c r="D41" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
@@ -1082,13 +1082,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.7752597078244605</v>
+        <v>2.553061224045024</v>
       </c>
       <c r="C42" t="n">
         <v>100</v>
       </c>
       <c r="D42" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
@@ -1099,13 +1099,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.253621579843639</v>
+        <v>1.174631507150906</v>
       </c>
       <c r="C43" t="n">
         <v>100</v>
       </c>
       <c r="D43" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
@@ -1116,13 +1116,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.677845146395924</v>
+        <v>3.507752656240427</v>
       </c>
       <c r="C44" t="n">
         <v>100</v>
       </c>
       <c r="D44" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -1133,13 +1133,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>5.573217222848058</v>
+        <v>1.352749845146036</v>
       </c>
       <c r="C45" t="n">
         <v>100</v>
       </c>
       <c r="D45" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
@@ -1150,13 +1150,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2.347354941915569</v>
+        <v>5.945828473308381</v>
       </c>
       <c r="C46" t="n">
         <v>100</v>
       </c>
       <c r="D46" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
@@ -1167,13 +1167,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6138651260239101</v>
+        <v>6.166958241086974</v>
       </c>
       <c r="C47" t="n">
         <v>100</v>
       </c>
       <c r="D47" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E47" t="b">
         <v>1</v>
@@ -1184,13 +1184,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>5.625774623672839</v>
+        <v>7.642484053991637</v>
       </c>
       <c r="C48" t="n">
         <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E48" t="b">
         <v>1</v>
@@ -1201,13 +1201,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.516084691697273</v>
+        <v>3.077808427519585</v>
       </c>
       <c r="C49" t="n">
         <v>100</v>
       </c>
       <c r="D49" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E49" t="b">
         <v>1</v>
@@ -1218,13 +1218,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>3.012257871868059</v>
+        <v>7.331384530888357</v>
       </c>
       <c r="C50" t="n">
         <v>100</v>
       </c>
       <c r="D50" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E50" t="b">
         <v>1</v>
@@ -1235,13 +1235,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1019089315604731</v>
+        <v>2.615557013670042</v>
       </c>
       <c r="C51" t="n">
         <v>100</v>
       </c>
       <c r="D51" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
@@ -1252,7 +1252,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2.746584876655362</v>
+        <v>4.612130708982363</v>
       </c>
       <c r="C52" t="n">
         <v>200</v>
@@ -1269,7 +1269,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.65483378937148</v>
+        <v>26.54794875986957</v>
       </c>
       <c r="C53" t="n">
         <v>200</v>
@@ -1286,7 +1286,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2.424800079959937</v>
+        <v>7.965160942259303</v>
       </c>
       <c r="C54" t="n">
         <v>200</v>
@@ -1303,7 +1303,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7.637006812880202</v>
+        <v>1.563138244399198</v>
       </c>
       <c r="C55" t="n">
         <v>200</v>
@@ -1320,7 +1320,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>6.13700644722752</v>
+        <v>2.070745053132981</v>
       </c>
       <c r="C56" t="n">
         <v>200</v>
@@ -1337,7 +1337,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>5.133844931416832</v>
+        <v>7.003256422698627</v>
       </c>
       <c r="C57" t="n">
         <v>200</v>
@@ -1354,7 +1354,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.2441381161228833</v>
+        <v>5.454177402844778</v>
       </c>
       <c r="C58" t="n">
         <v>200</v>
@@ -1371,7 +1371,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>3.821351352730147</v>
+        <v>0.2758393983120868</v>
       </c>
       <c r="C59" t="n">
         <v>200</v>
@@ -1388,7 +1388,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.233023897285278</v>
+        <v>1.53841674618883</v>
       </c>
       <c r="C60" t="n">
         <v>200</v>
@@ -1405,7 +1405,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>5.720818378652581</v>
+        <v>8.387164892990057</v>
       </c>
       <c r="C61" t="n">
         <v>200</v>
@@ -1422,7 +1422,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>3.553946801963548</v>
+        <v>2.888738197613378</v>
       </c>
       <c r="C62" t="n">
         <v>200</v>
@@ -1439,7 +1439,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.230811385683495</v>
+        <v>73.70080653757748</v>
       </c>
       <c r="C63" t="n">
         <v>200</v>
@@ -1456,7 +1456,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.138102170448889</v>
+        <v>9.745861674237176</v>
       </c>
       <c r="C64" t="n">
         <v>200</v>
@@ -1473,7 +1473,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>3.303272987586439</v>
+        <v>11.30776875627922</v>
       </c>
       <c r="C65" t="n">
         <v>200</v>
@@ -1490,7 +1490,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.7840968203935006</v>
+        <v>5.061409827807381</v>
       </c>
       <c r="C66" t="n">
         <v>200</v>
@@ -1507,7 +1507,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.8226386732314381</v>
+        <v>1.986238522748863</v>
       </c>
       <c r="C67" t="n">
         <v>200</v>
@@ -1524,7 +1524,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.916019908614061</v>
+        <v>11.35151111239531</v>
       </c>
       <c r="C68" t="n">
         <v>200</v>
@@ -1541,7 +1541,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2.811507205758886</v>
+        <v>32.62896155459356</v>
       </c>
       <c r="C69" t="n">
         <v>200</v>
@@ -1558,7 +1558,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.367593009404914</v>
+        <v>1.259713964807645</v>
       </c>
       <c r="C70" t="n">
         <v>200</v>
@@ -1575,7 +1575,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2992262352672697</v>
+        <v>2.854633631452913</v>
       </c>
       <c r="C71" t="n">
         <v>200</v>
@@ -1592,7 +1592,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>3.643713483275661</v>
+        <v>9.136513284100374</v>
       </c>
       <c r="C72" t="n">
         <v>200</v>
@@ -1609,7 +1609,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.399347588422984</v>
+        <v>44.68636600351761</v>
       </c>
       <c r="C73" t="n">
         <v>200</v>
@@ -1626,7 +1626,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2.902545109421993</v>
+        <v>9.576291310768994</v>
       </c>
       <c r="C74" t="n">
         <v>200</v>
@@ -1643,7 +1643,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.829455972398449</v>
+        <v>76.37188136176235</v>
       </c>
       <c r="C75" t="n">
         <v>200</v>
@@ -1660,7 +1660,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>26.60703379077674</v>
+        <v>6.469244258150837</v>
       </c>
       <c r="C76" t="n">
         <v>200</v>
@@ -1677,7 +1677,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>8.102604787169696</v>
+        <v>0.6007866411896146</v>
       </c>
       <c r="C77" t="n">
         <v>200</v>
@@ -1694,7 +1694,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>3.773958629592926</v>
+        <v>1.154296749711278</v>
       </c>
       <c r="C78" t="n">
         <v>200</v>
@@ -1711,7 +1711,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2.273639567823125</v>
+        <v>80.9336028651179</v>
       </c>
       <c r="C79" t="n">
         <v>200</v>
@@ -1728,7 +1728,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.465167668589032</v>
+        <v>3.918339749367988</v>
       </c>
       <c r="C80" t="n">
         <v>200</v>
@@ -1745,7 +1745,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>7.079802572240482</v>
+        <v>1.587540911552537</v>
       </c>
       <c r="C81" t="n">
         <v>200</v>
@@ -1762,7 +1762,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.306224284921</v>
+        <v>3.44236328047603</v>
       </c>
       <c r="C82" t="n">
         <v>200</v>
@@ -1779,7 +1779,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.51656003271259</v>
+        <v>45.58068517846323</v>
       </c>
       <c r="C83" t="n">
         <v>200</v>
@@ -1796,7 +1796,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>5.070187273460647</v>
+        <v>1.89638535581355</v>
       </c>
       <c r="C84" t="n">
         <v>200</v>
@@ -1813,7 +1813,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>10.48006650819065</v>
+        <v>47.49653884774335</v>
       </c>
       <c r="C85" t="n">
         <v>200</v>
@@ -1830,7 +1830,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>3.663979006563068</v>
+        <v>1.978485732157992</v>
       </c>
       <c r="C86" t="n">
         <v>200</v>
@@ -1847,7 +1847,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5183675401933954</v>
+        <v>4.761223288608903</v>
       </c>
       <c r="C87" t="n">
         <v>200</v>
@@ -1864,7 +1864,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2.405951744964824</v>
+        <v>53.66965187644125</v>
       </c>
       <c r="C88" t="n">
         <v>200</v>
@@ -1881,7 +1881,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.07573932956057661</v>
+        <v>117.5592319048137</v>
       </c>
       <c r="C89" t="n">
         <v>200</v>
@@ -1898,7 +1898,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.699876584097638</v>
+        <v>1.478738965646414</v>
       </c>
       <c r="C90" t="n">
         <v>200</v>
@@ -1915,7 +1915,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.2791188190977607</v>
+        <v>0.9085858560411282</v>
       </c>
       <c r="C91" t="n">
         <v>200</v>
@@ -1932,7 +1932,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>5.29622626499372</v>
+        <v>4.152321937621593</v>
       </c>
       <c r="C92" t="n">
         <v>200</v>
@@ -1949,7 +1949,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.741173664171498</v>
+        <v>0.7763588984010994</v>
       </c>
       <c r="C93" t="n">
         <v>200</v>
@@ -1966,7 +1966,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2.046263784861651</v>
+        <v>11.50705111221038</v>
       </c>
       <c r="C94" t="n">
         <v>200</v>
@@ -1983,7 +1983,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.509478471880868</v>
+        <v>28.95175054727474</v>
       </c>
       <c r="C95" t="n">
         <v>200</v>
@@ -2000,7 +2000,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.357891264807961</v>
+        <v>3.064371903858301</v>
       </c>
       <c r="C96" t="n">
         <v>200</v>
@@ -2017,7 +2017,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>9.978101737009183</v>
+        <v>67.85495152886558</v>
       </c>
       <c r="C97" t="n">
         <v>200</v>
@@ -2034,7 +2034,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.074940957972245</v>
+        <v>3.5237515983425</v>
       </c>
       <c r="C98" t="n">
         <v>200</v>
@@ -2051,7 +2051,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>3.459670945855891</v>
+        <v>1.324152580451113</v>
       </c>
       <c r="C99" t="n">
         <v>200</v>
@@ -2068,7 +2068,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5272315162943073</v>
+        <v>3.311282120060156</v>
       </c>
       <c r="C100" t="n">
         <v>200</v>
@@ -2085,7 +2085,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2.109040762846604</v>
+        <v>5.470769287157538</v>
       </c>
       <c r="C101" t="n">
         <v>200</v>

--- a/simulations/model/single_item_drift_eccentricity_ke_ki.xlsx
+++ b/simulations/model/single_item_drift_eccentricity_ke_ki.xlsx
@@ -375,7 +375,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7.040707168398228</v>
+        <v>6.777299947605542</v>
       </c>
       <c r="C2" t="n">
         <v>100</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -419,13 +419,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07576968732445266</v>
+        <v>0.4790829779477974</v>
       </c>
       <c r="C3" t="n">
         <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -436,13 +436,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4588920857687242</v>
+        <v>0.920609375722421</v>
       </c>
       <c r="C4" t="n">
         <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -453,13 +453,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.04129032444163272</v>
+        <v>2.356782539923415</v>
       </c>
       <c r="C5" t="n">
         <v>100</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -470,13 +470,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.961648976721477</v>
+        <v>4.933338665089053</v>
       </c>
       <c r="C6" t="n">
         <v>100</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -487,13 +487,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03087657078415873</v>
+        <v>1.859040970372291</v>
       </c>
       <c r="C7" t="n">
         <v>100</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -504,13 +504,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.021459548926799</v>
+        <v>1.673172140052259</v>
       </c>
       <c r="C8" t="n">
         <v>100</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -521,13 +521,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.723912930787435</v>
+        <v>2.234361888171861</v>
       </c>
       <c r="C9" t="n">
         <v>100</v>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -538,13 +538,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4321769967636158</v>
+        <v>0.5444048860721296</v>
       </c>
       <c r="C10" t="n">
         <v>100</v>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -555,13 +555,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12.33985699498956</v>
+        <v>2.945154918969337</v>
       </c>
       <c r="C11" t="n">
         <v>100</v>
       </c>
       <c r="D11" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E11" t="b">
         <v>1</v>
@@ -572,13 +572,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>6.044197382333891</v>
+        <v>1.438742781972763</v>
       </c>
       <c r="C12" t="n">
         <v>100</v>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E12" t="b">
         <v>1</v>
@@ -589,13 +589,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.644971210766101</v>
+        <v>1.585153291135327</v>
       </c>
       <c r="C13" t="n">
         <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -606,13 +606,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.083869970212447</v>
+        <v>1.930472671427339</v>
       </c>
       <c r="C14" t="n">
         <v>100</v>
       </c>
       <c r="D14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -623,13 +623,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.94060650294071</v>
+        <v>0.8108638792002694</v>
       </c>
       <c r="C15" t="n">
         <v>100</v>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -640,13 +640,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.524402512339265</v>
+        <v>2.865107538876515</v>
       </c>
       <c r="C16" t="n">
         <v>100</v>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -657,13 +657,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.227232750154144</v>
+        <v>0.415295754801889</v>
       </c>
       <c r="C17" t="n">
         <v>100</v>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E17" t="b">
         <v>1</v>
@@ -674,13 +674,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.192407948437705</v>
+        <v>0.5061035393134716</v>
       </c>
       <c r="C18" t="n">
         <v>100</v>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E18" t="b">
         <v>1</v>
@@ -691,13 +691,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02288416341534116</v>
+        <v>1.758625327561816</v>
       </c>
       <c r="C19" t="n">
         <v>100</v>
       </c>
       <c r="D19" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
@@ -708,13 +708,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3999580608750648</v>
+        <v>3.691703980674305</v>
       </c>
       <c r="C20" t="n">
         <v>100</v>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E20" t="b">
         <v>1</v>
@@ -725,13 +725,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.31291786963374</v>
+        <v>0.1623435134771682</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E21" t="b">
         <v>1</v>
@@ -742,13 +742,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>5.221479394415951</v>
+        <v>0.7369491178645831</v>
       </c>
       <c r="C22" t="n">
         <v>100</v>
       </c>
       <c r="D22" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E22" t="b">
         <v>1</v>
@@ -759,13 +759,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.534997717144421</v>
+        <v>0.5117347744628375</v>
       </c>
       <c r="C23" t="n">
         <v>100</v>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -776,13 +776,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.448837305598659</v>
+        <v>4.177023396943014</v>
       </c>
       <c r="C24" t="n">
         <v>100</v>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E24" t="b">
         <v>1</v>
@@ -793,13 +793,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.529624589048154</v>
+        <v>5.62033725136402</v>
       </c>
       <c r="C25" t="n">
         <v>100</v>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E25" t="b">
         <v>1</v>
@@ -810,13 +810,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>6.14278924954715</v>
+        <v>3.337129122772495</v>
       </c>
       <c r="C26" t="n">
         <v>100</v>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E26" t="b">
         <v>1</v>
@@ -827,13 +827,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>8.668681601696335</v>
+        <v>4.671364877054543</v>
       </c>
       <c r="C27" t="n">
         <v>100</v>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E27" t="b">
         <v>1</v>
@@ -844,13 +844,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8509372618729287</v>
+        <v>2.282341724603441</v>
       </c>
       <c r="C28" t="n">
         <v>100</v>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E28" t="b">
         <v>1</v>
@@ -861,13 +861,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.237909604887051</v>
+        <v>2.524873659112529</v>
       </c>
       <c r="C29" t="n">
         <v>100</v>
       </c>
       <c r="D29" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -878,13 +878,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2.379540543055498</v>
+        <v>0.4749715671728438</v>
       </c>
       <c r="C30" t="n">
         <v>100</v>
       </c>
       <c r="D30" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -895,13 +895,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7.082897042347469</v>
+        <v>9.274144852327026</v>
       </c>
       <c r="C31" t="n">
         <v>100</v>
       </c>
       <c r="D31" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E31" t="b">
         <v>1</v>
@@ -912,13 +912,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>6.894621874104416</v>
+        <v>0.4324362985987023</v>
       </c>
       <c r="C32" t="n">
         <v>100</v>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -929,13 +929,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9882509279470355</v>
+        <v>2.51354990383831</v>
       </c>
       <c r="C33" t="n">
         <v>100</v>
       </c>
       <c r="D33" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -946,13 +946,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.904105231745376</v>
+        <v>0.5872377039924288</v>
       </c>
       <c r="C34" t="n">
         <v>100</v>
       </c>
       <c r="D34" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E34" t="b">
         <v>1</v>
@@ -963,13 +963,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2.132458185418272</v>
+        <v>0.8171398329027681</v>
       </c>
       <c r="C35" t="n">
         <v>100</v>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -980,13 +980,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.970925218725313</v>
+        <v>0.05813015909259889</v>
       </c>
       <c r="C36" t="n">
         <v>100</v>
       </c>
       <c r="D36" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E36" t="b">
         <v>1</v>
@@ -997,13 +997,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.710059711018545</v>
+        <v>5.288710843442743</v>
       </c>
       <c r="C37" t="n">
         <v>100</v>
       </c>
       <c r="D37" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -1014,13 +1014,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.265247531331312</v>
+        <v>2.577434993791883</v>
       </c>
       <c r="C38" t="n">
         <v>100</v>
       </c>
       <c r="D38" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E38" t="b">
         <v>1</v>
@@ -1031,13 +1031,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.308442907041382</v>
+        <v>1.939357300156956</v>
       </c>
       <c r="C39" t="n">
         <v>100</v>
       </c>
       <c r="D39" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -1048,13 +1048,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.242391361522067</v>
+        <v>2.631437049202759</v>
       </c>
       <c r="C40" t="n">
         <v>100</v>
       </c>
       <c r="D40" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E40" t="b">
         <v>1</v>
@@ -1065,13 +1065,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>3.538949896918382</v>
+        <v>8.111038095828263</v>
       </c>
       <c r="C41" t="n">
         <v>100</v>
       </c>
       <c r="D41" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
@@ -1082,13 +1082,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2.553061224045024</v>
+        <v>3.200330389119415</v>
       </c>
       <c r="C42" t="n">
         <v>100</v>
       </c>
       <c r="D42" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E42" t="b">
         <v>1</v>
@@ -1099,13 +1099,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.174631507150906</v>
+        <v>0.3835262325836766</v>
       </c>
       <c r="C43" t="n">
         <v>100</v>
       </c>
       <c r="D43" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
@@ -1116,13 +1116,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>3.507752656240427</v>
+        <v>0.3346803953693609</v>
       </c>
       <c r="C44" t="n">
         <v>100</v>
       </c>
       <c r="D44" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E44" t="b">
         <v>1</v>
@@ -1133,13 +1133,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.352749845146036</v>
+        <v>5.078491906743864</v>
       </c>
       <c r="C45" t="n">
         <v>100</v>
       </c>
       <c r="D45" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E45" t="b">
         <v>1</v>
@@ -1150,13 +1150,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>5.945828473308381</v>
+        <v>1.247641618993356</v>
       </c>
       <c r="C46" t="n">
         <v>100</v>
       </c>
       <c r="D46" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E46" t="b">
         <v>1</v>
@@ -1167,13 +1167,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>6.166958241086974</v>
+        <v>1.290002033253074</v>
       </c>
       <c r="C47" t="n">
         <v>100</v>
       </c>
       <c r="D47" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E47" t="b">
         <v>1</v>
@@ -1184,13 +1184,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.642484053991637</v>
+        <v>0.9669429202352546</v>
       </c>
       <c r="C48" t="n">
         <v>100</v>
       </c>
       <c r="D48" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E48" t="b">
         <v>1</v>
@@ -1201,13 +1201,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>3.077808427519585</v>
+        <v>2.496587041557262</v>
       </c>
       <c r="C49" t="n">
         <v>100</v>
       </c>
       <c r="D49" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E49" t="b">
         <v>1</v>
@@ -1218,13 +1218,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.331384530888357</v>
+        <v>2.312830134307632</v>
       </c>
       <c r="C50" t="n">
         <v>100</v>
       </c>
       <c r="D50" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E50" t="b">
         <v>1</v>
@@ -1235,13 +1235,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2.615557013670042</v>
+        <v>1.549484570802178</v>
       </c>
       <c r="C51" t="n">
         <v>100</v>
       </c>
       <c r="D51" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E51" t="b">
         <v>1</v>
@@ -1252,13 +1252,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.612130708982363</v>
+        <v>0.1484725588543938</v>
       </c>
       <c r="C52" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D52" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E52" t="b">
         <v>1</v>
@@ -1269,13 +1269,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>26.54794875986957</v>
+        <v>0.946264793143996</v>
       </c>
       <c r="C53" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D53" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E53" t="b">
         <v>1</v>
@@ -1286,13 +1286,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7.965160942259303</v>
+        <v>2.001114692899534</v>
       </c>
       <c r="C54" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D54" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E54" t="b">
         <v>1</v>
@@ -1303,13 +1303,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.563138244399198</v>
+        <v>0.2743939287032333</v>
       </c>
       <c r="C55" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D55" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E55" t="b">
         <v>1</v>
@@ -1320,13 +1320,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2.070745053132981</v>
+        <v>2.32643185785048</v>
       </c>
       <c r="C56" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D56" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E56" t="b">
         <v>1</v>
@@ -1337,13 +1337,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7.003256422698627</v>
+        <v>0.02087954051756924</v>
       </c>
       <c r="C57" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D57" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E57" t="b">
         <v>1</v>
@@ -1354,13 +1354,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>5.454177402844778</v>
+        <v>3.084358898965888</v>
       </c>
       <c r="C58" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D58" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E58" t="b">
         <v>1</v>
@@ -1371,13 +1371,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.2758393983120868</v>
+        <v>1.293961457258064</v>
       </c>
       <c r="C59" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D59" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E59" t="b">
         <v>1</v>
@@ -1388,13 +1388,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.53841674618883</v>
+        <v>2.409708748932218</v>
       </c>
       <c r="C60" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D60" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E60" t="b">
         <v>1</v>
@@ -1405,13 +1405,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>8.387164892990057</v>
+        <v>3.666894905010594</v>
       </c>
       <c r="C61" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D61" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E61" t="b">
         <v>1</v>
@@ -1422,13 +1422,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2.888738197613378</v>
+        <v>0.4875417615076287</v>
       </c>
       <c r="C62" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D62" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E62" t="b">
         <v>1</v>
@@ -1439,13 +1439,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>73.70080653757748</v>
+        <v>0.1741164598477098</v>
       </c>
       <c r="C63" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D63" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E63" t="b">
         <v>1</v>
@@ -1456,13 +1456,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>9.745861674237176</v>
+        <v>0.1476588701807486</v>
       </c>
       <c r="C64" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D64" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E64" t="b">
         <v>1</v>
@@ -1473,13 +1473,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.30776875627922</v>
+        <v>1.214856904364524</v>
       </c>
       <c r="C65" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D65" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E65" t="b">
         <v>1</v>
@@ -1490,13 +1490,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>5.061409827807381</v>
+        <v>2.526803759324565</v>
       </c>
       <c r="C66" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D66" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E66" t="b">
         <v>1</v>
@@ -1507,13 +1507,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.986238522748863</v>
+        <v>1.804044734195287</v>
       </c>
       <c r="C67" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D67" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E67" t="b">
         <v>1</v>
@@ -1524,13 +1524,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.35151111239531</v>
+        <v>5.895770440000177</v>
       </c>
       <c r="C68" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D68" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E68" t="b">
         <v>1</v>
@@ -1541,13 +1541,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>32.62896155459356</v>
+        <v>0.7215958511734186</v>
       </c>
       <c r="C69" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D69" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E69" t="b">
         <v>1</v>
@@ -1558,13 +1558,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.259713964807645</v>
+        <v>1.069774506762315</v>
       </c>
       <c r="C70" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D70" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E70" t="b">
         <v>1</v>
@@ -1575,13 +1575,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2.854633631452913</v>
+        <v>3.359238206586753</v>
       </c>
       <c r="C71" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D71" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E71" t="b">
         <v>1</v>
@@ -1592,13 +1592,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>9.136513284100374</v>
+        <v>3.30446116163975</v>
       </c>
       <c r="C72" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D72" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E72" t="b">
         <v>1</v>
@@ -1609,13 +1609,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>44.68636600351761</v>
+        <v>1.067470684582787</v>
       </c>
       <c r="C73" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D73" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E73" t="b">
         <v>1</v>
@@ -1626,13 +1626,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>9.576291310768994</v>
+        <v>0.8112353420551131</v>
       </c>
       <c r="C74" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D74" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E74" t="b">
         <v>1</v>
@@ -1643,13 +1643,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>76.37188136176235</v>
+        <v>1.7996580538709</v>
       </c>
       <c r="C75" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D75" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E75" t="b">
         <v>1</v>
@@ -1660,13 +1660,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>6.469244258150837</v>
+        <v>0.2662919938127857</v>
       </c>
       <c r="C76" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D76" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E76" t="b">
         <v>1</v>
@@ -1677,13 +1677,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.6007866411896146</v>
+        <v>1.006974229034967</v>
       </c>
       <c r="C77" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D77" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E77" t="b">
         <v>1</v>
@@ -1694,13 +1694,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.154296749711278</v>
+        <v>4.761360657426508</v>
       </c>
       <c r="C78" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D78" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E78" t="b">
         <v>1</v>
@@ -1711,13 +1711,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>80.9336028651179</v>
+        <v>3.256918779311576</v>
       </c>
       <c r="C79" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D79" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E79" t="b">
         <v>1</v>
@@ -1728,13 +1728,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>3.918339749367988</v>
+        <v>9.79397112020078</v>
       </c>
       <c r="C80" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D80" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
@@ -1745,13 +1745,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.587540911552537</v>
+        <v>0.03230195215866161</v>
       </c>
       <c r="C81" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D81" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E81" t="b">
         <v>1</v>
@@ -1762,13 +1762,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>3.44236328047603</v>
+        <v>1.54415452814473</v>
       </c>
       <c r="C82" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D82" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E82" t="b">
         <v>1</v>
@@ -1779,13 +1779,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>45.58068517846323</v>
+        <v>3.234154358473916</v>
       </c>
       <c r="C83" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D83" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E83" t="b">
         <v>1</v>
@@ -1796,13 +1796,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.89638535581355</v>
+        <v>2.02485257356193</v>
       </c>
       <c r="C84" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D84" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E84" t="b">
         <v>1</v>
@@ -1813,13 +1813,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>47.49653884774335</v>
+        <v>5.291441210966383</v>
       </c>
       <c r="C85" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D85" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E85" t="b">
         <v>1</v>
@@ -1830,13 +1830,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.978485732157992</v>
+        <v>0.4584665411489937</v>
       </c>
       <c r="C86" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D86" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E86" t="b">
         <v>1</v>
@@ -1847,13 +1847,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.761223288608903</v>
+        <v>0.8518555360653579</v>
       </c>
       <c r="C87" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D87" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E87" t="b">
         <v>1</v>
@@ -1864,13 +1864,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>53.66965187644125</v>
+        <v>2.702128725012301</v>
       </c>
       <c r="C88" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D88" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E88" t="b">
         <v>1</v>
@@ -1881,13 +1881,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>117.5592319048137</v>
+        <v>0.2526128168842945</v>
       </c>
       <c r="C89" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D89" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E89" t="b">
         <v>1</v>
@@ -1898,13 +1898,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.478738965646414</v>
+        <v>3.416808286672619</v>
       </c>
       <c r="C90" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D90" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E90" t="b">
         <v>1</v>
@@ -1915,13 +1915,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9085858560411282</v>
+        <v>1.164056878114707</v>
       </c>
       <c r="C91" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D91" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E91" t="b">
         <v>1</v>
@@ -1932,13 +1932,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.152321937621593</v>
+        <v>7.264376746394476</v>
       </c>
       <c r="C92" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D92" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E92" t="b">
         <v>1</v>
@@ -1949,13 +1949,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.7763588984010994</v>
+        <v>1.716877560587221</v>
       </c>
       <c r="C93" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D93" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E93" t="b">
         <v>1</v>
@@ -1966,13 +1966,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>11.50705111221038</v>
+        <v>2.972612464560484</v>
       </c>
       <c r="C94" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D94" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E94" t="b">
         <v>1</v>
@@ -1983,13 +1983,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>28.95175054727474</v>
+        <v>4.196837065850048</v>
       </c>
       <c r="C95" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D95" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E95" t="b">
         <v>1</v>
@@ -2000,13 +2000,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>3.064371903858301</v>
+        <v>3.468235971927726</v>
       </c>
       <c r="C96" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D96" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E96" t="b">
         <v>1</v>
@@ -2017,13 +2017,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>67.85495152886558</v>
+        <v>0.4128353238913292</v>
       </c>
       <c r="C97" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D97" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E97" t="b">
         <v>1</v>
@@ -2034,13 +2034,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>3.5237515983425</v>
+        <v>2.512332377473456</v>
       </c>
       <c r="C98" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D98" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E98" t="b">
         <v>1</v>
@@ -2051,13 +2051,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.324152580451113</v>
+        <v>0.5412092251630156</v>
       </c>
       <c r="C99" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D99" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E99" t="b">
         <v>1</v>
@@ -2068,13 +2068,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>3.311282120060156</v>
+        <v>1.529557058542309</v>
       </c>
       <c r="C100" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D100" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E100" t="b">
         <v>1</v>
@@ -2085,15 +2085,5098 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>5.470769287157538</v>
+        <v>6.574464973362296</v>
       </c>
       <c r="C101" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="D101" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="E101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2.75555661902979</v>
+      </c>
+      <c r="C102" t="n">
+        <v>100</v>
+      </c>
+      <c r="D102" t="n">
+        <v>7</v>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7191471260065327</v>
+      </c>
+      <c r="C103" t="n">
+        <v>100</v>
+      </c>
+      <c r="D103" t="n">
+        <v>7</v>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>5.858402070129415</v>
+      </c>
+      <c r="C104" t="n">
+        <v>100</v>
+      </c>
+      <c r="D104" t="n">
+        <v>7</v>
+      </c>
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.05857091605895448</v>
+      </c>
+      <c r="C105" t="n">
+        <v>100</v>
+      </c>
+      <c r="D105" t="n">
+        <v>7</v>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7056839645317723</v>
+      </c>
+      <c r="C106" t="n">
+        <v>100</v>
+      </c>
+      <c r="D106" t="n">
+        <v>7</v>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.496852855457831</v>
+      </c>
+      <c r="C107" t="n">
+        <v>100</v>
+      </c>
+      <c r="D107" t="n">
+        <v>7</v>
+      </c>
+      <c r="E107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.4128835985777073</v>
+      </c>
+      <c r="C108" t="n">
+        <v>100</v>
+      </c>
+      <c r="D108" t="n">
+        <v>7</v>
+      </c>
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.025390432821979</v>
+      </c>
+      <c r="C109" t="n">
+        <v>100</v>
+      </c>
+      <c r="D109" t="n">
+        <v>7</v>
+      </c>
+      <c r="E109" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.4117839149953113</v>
+      </c>
+      <c r="C110" t="n">
+        <v>100</v>
+      </c>
+      <c r="D110" t="n">
+        <v>7</v>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5.371097960402466</v>
+      </c>
+      <c r="C111" t="n">
+        <v>100</v>
+      </c>
+      <c r="D111" t="n">
+        <v>7</v>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.713406124695069</v>
+      </c>
+      <c r="C112" t="n">
+        <v>100</v>
+      </c>
+      <c r="D112" t="n">
+        <v>7</v>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.3642513098209292</v>
+      </c>
+      <c r="C113" t="n">
+        <v>100</v>
+      </c>
+      <c r="D113" t="n">
+        <v>7</v>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.1302743585966368</v>
+      </c>
+      <c r="C114" t="n">
+        <v>100</v>
+      </c>
+      <c r="D114" t="n">
+        <v>7</v>
+      </c>
+      <c r="E114" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.6594582936546658</v>
+      </c>
+      <c r="C115" t="n">
+        <v>100</v>
+      </c>
+      <c r="D115" t="n">
+        <v>7</v>
+      </c>
+      <c r="E115" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6.909837299274983</v>
+      </c>
+      <c r="C116" t="n">
+        <v>100</v>
+      </c>
+      <c r="D116" t="n">
+        <v>7</v>
+      </c>
+      <c r="E116" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2.507772791288033</v>
+      </c>
+      <c r="C117" t="n">
+        <v>100</v>
+      </c>
+      <c r="D117" t="n">
+        <v>7</v>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.07734354063455839</v>
+      </c>
+      <c r="C118" t="n">
+        <v>100</v>
+      </c>
+      <c r="D118" t="n">
+        <v>7</v>
+      </c>
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2.55517595926608</v>
+      </c>
+      <c r="C119" t="n">
+        <v>100</v>
+      </c>
+      <c r="D119" t="n">
+        <v>7</v>
+      </c>
+      <c r="E119" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>7.471428257432791</v>
+      </c>
+      <c r="C120" t="n">
+        <v>100</v>
+      </c>
+      <c r="D120" t="n">
+        <v>7</v>
+      </c>
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6.362975492102294</v>
+      </c>
+      <c r="C121" t="n">
+        <v>100</v>
+      </c>
+      <c r="D121" t="n">
+        <v>7</v>
+      </c>
+      <c r="E121" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>3.970866326076163</v>
+      </c>
+      <c r="C122" t="n">
+        <v>100</v>
+      </c>
+      <c r="D122" t="n">
+        <v>7</v>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.726115471999378</v>
+      </c>
+      <c r="C123" t="n">
+        <v>100</v>
+      </c>
+      <c r="D123" t="n">
+        <v>7</v>
+      </c>
+      <c r="E123" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>5.612541438019178</v>
+      </c>
+      <c r="C124" t="n">
+        <v>100</v>
+      </c>
+      <c r="D124" t="n">
+        <v>7</v>
+      </c>
+      <c r="E124" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.620075868906412</v>
+      </c>
+      <c r="C125" t="n">
+        <v>100</v>
+      </c>
+      <c r="D125" t="n">
+        <v>7</v>
+      </c>
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2.970825671409813</v>
+      </c>
+      <c r="C126" t="n">
+        <v>100</v>
+      </c>
+      <c r="D126" t="n">
+        <v>7</v>
+      </c>
+      <c r="E126" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2.877372161673378</v>
+      </c>
+      <c r="C127" t="n">
+        <v>100</v>
+      </c>
+      <c r="D127" t="n">
+        <v>7</v>
+      </c>
+      <c r="E127" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6.617561619187114</v>
+      </c>
+      <c r="C128" t="n">
+        <v>100</v>
+      </c>
+      <c r="D128" t="n">
+        <v>7</v>
+      </c>
+      <c r="E128" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>5.945033074139303</v>
+      </c>
+      <c r="C129" t="n">
+        <v>100</v>
+      </c>
+      <c r="D129" t="n">
+        <v>7</v>
+      </c>
+      <c r="E129" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>4.261378596613014</v>
+      </c>
+      <c r="C130" t="n">
+        <v>100</v>
+      </c>
+      <c r="D130" t="n">
+        <v>7</v>
+      </c>
+      <c r="E130" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.6523153587809531</v>
+      </c>
+      <c r="C131" t="n">
+        <v>100</v>
+      </c>
+      <c r="D131" t="n">
+        <v>7</v>
+      </c>
+      <c r="E131" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3.095492576432804</v>
+      </c>
+      <c r="C132" t="n">
+        <v>100</v>
+      </c>
+      <c r="D132" t="n">
+        <v>7</v>
+      </c>
+      <c r="E132" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.249243804079839</v>
+      </c>
+      <c r="C133" t="n">
+        <v>100</v>
+      </c>
+      <c r="D133" t="n">
+        <v>7</v>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2.720229697236334</v>
+      </c>
+      <c r="C134" t="n">
+        <v>100</v>
+      </c>
+      <c r="D134" t="n">
+        <v>7</v>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.181780918085536</v>
+      </c>
+      <c r="C135" t="n">
+        <v>100</v>
+      </c>
+      <c r="D135" t="n">
+        <v>7</v>
+      </c>
+      <c r="E135" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2.760377926540144</v>
+      </c>
+      <c r="C136" t="n">
+        <v>100</v>
+      </c>
+      <c r="D136" t="n">
+        <v>7</v>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>7.420038014908954</v>
+      </c>
+      <c r="C137" t="n">
+        <v>100</v>
+      </c>
+      <c r="D137" t="n">
+        <v>7</v>
+      </c>
+      <c r="E137" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>8.98199508837385</v>
+      </c>
+      <c r="C138" t="n">
+        <v>100</v>
+      </c>
+      <c r="D138" t="n">
+        <v>7</v>
+      </c>
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.5467528175250038</v>
+      </c>
+      <c r="C139" t="n">
+        <v>100</v>
+      </c>
+      <c r="D139" t="n">
+        <v>7</v>
+      </c>
+      <c r="E139" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.492836567120662</v>
+      </c>
+      <c r="C140" t="n">
+        <v>100</v>
+      </c>
+      <c r="D140" t="n">
+        <v>7</v>
+      </c>
+      <c r="E140" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>6.871169078057903</v>
+      </c>
+      <c r="C141" t="n">
+        <v>100</v>
+      </c>
+      <c r="D141" t="n">
+        <v>7</v>
+      </c>
+      <c r="E141" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.3235790652522041</v>
+      </c>
+      <c r="C142" t="n">
+        <v>100</v>
+      </c>
+      <c r="D142" t="n">
+        <v>7</v>
+      </c>
+      <c r="E142" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3.650822018052509</v>
+      </c>
+      <c r="C143" t="n">
+        <v>100</v>
+      </c>
+      <c r="D143" t="n">
+        <v>7</v>
+      </c>
+      <c r="E143" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>3.650758734991484</v>
+      </c>
+      <c r="C144" t="n">
+        <v>100</v>
+      </c>
+      <c r="D144" t="n">
+        <v>7</v>
+      </c>
+      <c r="E144" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2.594638603535316</v>
+      </c>
+      <c r="C145" t="n">
+        <v>100</v>
+      </c>
+      <c r="D145" t="n">
+        <v>7</v>
+      </c>
+      <c r="E145" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.5484210568580181</v>
+      </c>
+      <c r="C146" t="n">
+        <v>100</v>
+      </c>
+      <c r="D146" t="n">
+        <v>7</v>
+      </c>
+      <c r="E146" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>6.376302250633643</v>
+      </c>
+      <c r="C147" t="n">
+        <v>100</v>
+      </c>
+      <c r="D147" t="n">
+        <v>7</v>
+      </c>
+      <c r="E147" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2.960892952430328</v>
+      </c>
+      <c r="C148" t="n">
+        <v>100</v>
+      </c>
+      <c r="D148" t="n">
+        <v>7</v>
+      </c>
+      <c r="E148" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5.077423172668603</v>
+      </c>
+      <c r="C149" t="n">
+        <v>100</v>
+      </c>
+      <c r="D149" t="n">
+        <v>7</v>
+      </c>
+      <c r="E149" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3.680727468425033</v>
+      </c>
+      <c r="C150" t="n">
+        <v>100</v>
+      </c>
+      <c r="D150" t="n">
+        <v>7</v>
+      </c>
+      <c r="E150" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6.889909651871534</v>
+      </c>
+      <c r="C151" t="n">
+        <v>100</v>
+      </c>
+      <c r="D151" t="n">
+        <v>7</v>
+      </c>
+      <c r="E151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>2.641994516316345</v>
+      </c>
+      <c r="C152" t="n">
+        <v>100</v>
+      </c>
+      <c r="D152" t="n">
+        <v>7</v>
+      </c>
+      <c r="E152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>3.82914421107435</v>
+      </c>
+      <c r="C153" t="n">
+        <v>100</v>
+      </c>
+      <c r="D153" t="n">
+        <v>7</v>
+      </c>
+      <c r="E153" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.814846328479661</v>
+      </c>
+      <c r="C154" t="n">
+        <v>100</v>
+      </c>
+      <c r="D154" t="n">
+        <v>7</v>
+      </c>
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.546725793194582</v>
+      </c>
+      <c r="C155" t="n">
+        <v>100</v>
+      </c>
+      <c r="D155" t="n">
+        <v>7</v>
+      </c>
+      <c r="E155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>7.36214289578345</v>
+      </c>
+      <c r="C156" t="n">
+        <v>100</v>
+      </c>
+      <c r="D156" t="n">
+        <v>7</v>
+      </c>
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.004253144678984</v>
+      </c>
+      <c r="C157" t="n">
+        <v>100</v>
+      </c>
+      <c r="D157" t="n">
+        <v>7</v>
+      </c>
+      <c r="E157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.1170657794780823</v>
+      </c>
+      <c r="C158" t="n">
+        <v>100</v>
+      </c>
+      <c r="D158" t="n">
+        <v>7</v>
+      </c>
+      <c r="E158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.3101979396421655</v>
+      </c>
+      <c r="C159" t="n">
+        <v>100</v>
+      </c>
+      <c r="D159" t="n">
+        <v>7</v>
+      </c>
+      <c r="E159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2.786256536539156</v>
+      </c>
+      <c r="C160" t="n">
+        <v>100</v>
+      </c>
+      <c r="D160" t="n">
+        <v>7</v>
+      </c>
+      <c r="E160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>3.806675956908379</v>
+      </c>
+      <c r="C161" t="n">
+        <v>100</v>
+      </c>
+      <c r="D161" t="n">
+        <v>7</v>
+      </c>
+      <c r="E161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>3.305896510901675</v>
+      </c>
+      <c r="C162" t="n">
+        <v>100</v>
+      </c>
+      <c r="D162" t="n">
+        <v>7</v>
+      </c>
+      <c r="E162" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>2.747874805469849</v>
+      </c>
+      <c r="C163" t="n">
+        <v>100</v>
+      </c>
+      <c r="D163" t="n">
+        <v>7</v>
+      </c>
+      <c r="E163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>3.522669186835969</v>
+      </c>
+      <c r="C164" t="n">
+        <v>100</v>
+      </c>
+      <c r="D164" t="n">
+        <v>7</v>
+      </c>
+      <c r="E164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.8644823268636515</v>
+      </c>
+      <c r="C165" t="n">
+        <v>100</v>
+      </c>
+      <c r="D165" t="n">
+        <v>7</v>
+      </c>
+      <c r="E165" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.9160348728235874</v>
+      </c>
+      <c r="C166" t="n">
+        <v>100</v>
+      </c>
+      <c r="D166" t="n">
+        <v>7</v>
+      </c>
+      <c r="E166" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.2554548894525226</v>
+      </c>
+      <c r="C167" t="n">
+        <v>100</v>
+      </c>
+      <c r="D167" t="n">
+        <v>7</v>
+      </c>
+      <c r="E167" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>4.992211373707846</v>
+      </c>
+      <c r="C168" t="n">
+        <v>100</v>
+      </c>
+      <c r="D168" t="n">
+        <v>7</v>
+      </c>
+      <c r="E168" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1.834114645991946</v>
+      </c>
+      <c r="C169" t="n">
+        <v>100</v>
+      </c>
+      <c r="D169" t="n">
+        <v>7</v>
+      </c>
+      <c r="E169" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>2.468483574784443</v>
+      </c>
+      <c r="C170" t="n">
+        <v>100</v>
+      </c>
+      <c r="D170" t="n">
+        <v>7</v>
+      </c>
+      <c r="E170" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5.169852794602093</v>
+      </c>
+      <c r="C171" t="n">
+        <v>100</v>
+      </c>
+      <c r="D171" t="n">
+        <v>7</v>
+      </c>
+      <c r="E171" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.9336408066376407</v>
+      </c>
+      <c r="C172" t="n">
+        <v>100</v>
+      </c>
+      <c r="D172" t="n">
+        <v>7</v>
+      </c>
+      <c r="E172" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>3.415408899044735</v>
+      </c>
+      <c r="C173" t="n">
+        <v>100</v>
+      </c>
+      <c r="D173" t="n">
+        <v>7</v>
+      </c>
+      <c r="E173" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1.930852128868878</v>
+      </c>
+      <c r="C174" t="n">
+        <v>100</v>
+      </c>
+      <c r="D174" t="n">
+        <v>7</v>
+      </c>
+      <c r="E174" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1.181873977296704</v>
+      </c>
+      <c r="C175" t="n">
+        <v>100</v>
+      </c>
+      <c r="D175" t="n">
+        <v>7</v>
+      </c>
+      <c r="E175" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>2.941180910493131</v>
+      </c>
+      <c r="C176" t="n">
+        <v>100</v>
+      </c>
+      <c r="D176" t="n">
+        <v>7</v>
+      </c>
+      <c r="E176" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>2.555702821682559</v>
+      </c>
+      <c r="C177" t="n">
+        <v>100</v>
+      </c>
+      <c r="D177" t="n">
+        <v>7</v>
+      </c>
+      <c r="E177" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>7.152715017987447</v>
+      </c>
+      <c r="C178" t="n">
+        <v>100</v>
+      </c>
+      <c r="D178" t="n">
+        <v>7</v>
+      </c>
+      <c r="E178" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>4.500752223754404</v>
+      </c>
+      <c r="C179" t="n">
+        <v>100</v>
+      </c>
+      <c r="D179" t="n">
+        <v>7</v>
+      </c>
+      <c r="E179" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1.635483009021499</v>
+      </c>
+      <c r="C180" t="n">
+        <v>100</v>
+      </c>
+      <c r="D180" t="n">
+        <v>7</v>
+      </c>
+      <c r="E180" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2.98921661973236</v>
+      </c>
+      <c r="C181" t="n">
+        <v>100</v>
+      </c>
+      <c r="D181" t="n">
+        <v>7</v>
+      </c>
+      <c r="E181" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>2.415919853440329</v>
+      </c>
+      <c r="C182" t="n">
+        <v>100</v>
+      </c>
+      <c r="D182" t="n">
+        <v>7</v>
+      </c>
+      <c r="E182" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1.963282515141458</v>
+      </c>
+      <c r="C183" t="n">
+        <v>100</v>
+      </c>
+      <c r="D183" t="n">
+        <v>7</v>
+      </c>
+      <c r="E183" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.5290304245606876</v>
+      </c>
+      <c r="C184" t="n">
+        <v>100</v>
+      </c>
+      <c r="D184" t="n">
+        <v>7</v>
+      </c>
+      <c r="E184" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>6.919999314266391</v>
+      </c>
+      <c r="C185" t="n">
+        <v>100</v>
+      </c>
+      <c r="D185" t="n">
+        <v>7</v>
+      </c>
+      <c r="E185" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>4.186115526997526</v>
+      </c>
+      <c r="C186" t="n">
+        <v>100</v>
+      </c>
+      <c r="D186" t="n">
+        <v>7</v>
+      </c>
+      <c r="E186" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.8884905066662725</v>
+      </c>
+      <c r="C187" t="n">
+        <v>100</v>
+      </c>
+      <c r="D187" t="n">
+        <v>7</v>
+      </c>
+      <c r="E187" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>8.520342108846592</v>
+      </c>
+      <c r="C188" t="n">
+        <v>100</v>
+      </c>
+      <c r="D188" t="n">
+        <v>7</v>
+      </c>
+      <c r="E188" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>2.950709961911997</v>
+      </c>
+      <c r="C189" t="n">
+        <v>100</v>
+      </c>
+      <c r="D189" t="n">
+        <v>7</v>
+      </c>
+      <c r="E189" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>3.119143948849995</v>
+      </c>
+      <c r="C190" t="n">
+        <v>100</v>
+      </c>
+      <c r="D190" t="n">
+        <v>7</v>
+      </c>
+      <c r="E190" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>2.861167912675029</v>
+      </c>
+      <c r="C191" t="n">
+        <v>100</v>
+      </c>
+      <c r="D191" t="n">
+        <v>7</v>
+      </c>
+      <c r="E191" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1.968195089138419</v>
+      </c>
+      <c r="C192" t="n">
+        <v>100</v>
+      </c>
+      <c r="D192" t="n">
+        <v>7</v>
+      </c>
+      <c r="E192" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.304568346322952</v>
+      </c>
+      <c r="C193" t="n">
+        <v>100</v>
+      </c>
+      <c r="D193" t="n">
+        <v>7</v>
+      </c>
+      <c r="E193" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.1097197587729397</v>
+      </c>
+      <c r="C194" t="n">
+        <v>100</v>
+      </c>
+      <c r="D194" t="n">
+        <v>7</v>
+      </c>
+      <c r="E194" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.820060926442892</v>
+      </c>
+      <c r="C195" t="n">
+        <v>100</v>
+      </c>
+      <c r="D195" t="n">
+        <v>7</v>
+      </c>
+      <c r="E195" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>6.905066876457738</v>
+      </c>
+      <c r="C196" t="n">
+        <v>100</v>
+      </c>
+      <c r="D196" t="n">
+        <v>7</v>
+      </c>
+      <c r="E196" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1.683098989787879</v>
+      </c>
+      <c r="C197" t="n">
+        <v>100</v>
+      </c>
+      <c r="D197" t="n">
+        <v>7</v>
+      </c>
+      <c r="E197" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.5967119662128084</v>
+      </c>
+      <c r="C198" t="n">
+        <v>100</v>
+      </c>
+      <c r="D198" t="n">
+        <v>7</v>
+      </c>
+      <c r="E198" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2.652820318250889</v>
+      </c>
+      <c r="C199" t="n">
+        <v>100</v>
+      </c>
+      <c r="D199" t="n">
+        <v>7</v>
+      </c>
+      <c r="E199" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2.56211805049233</v>
+      </c>
+      <c r="C200" t="n">
+        <v>100</v>
+      </c>
+      <c r="D200" t="n">
+        <v>7</v>
+      </c>
+      <c r="E200" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>4.092804645488741</v>
+      </c>
+      <c r="C201" t="n">
+        <v>200</v>
+      </c>
+      <c r="D201" t="n">
+        <v>20</v>
+      </c>
+      <c r="E201" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2.102115116551261</v>
+      </c>
+      <c r="C202" t="n">
+        <v>200</v>
+      </c>
+      <c r="D202" t="n">
+        <v>20</v>
+      </c>
+      <c r="E202" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2.457061503628807</v>
+      </c>
+      <c r="C203" t="n">
+        <v>200</v>
+      </c>
+      <c r="D203" t="n">
+        <v>20</v>
+      </c>
+      <c r="E203" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2.937711613190004</v>
+      </c>
+      <c r="C204" t="n">
+        <v>200</v>
+      </c>
+      <c r="D204" t="n">
+        <v>20</v>
+      </c>
+      <c r="E204" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2.227789837251692</v>
+      </c>
+      <c r="C205" t="n">
+        <v>200</v>
+      </c>
+      <c r="D205" t="n">
+        <v>20</v>
+      </c>
+      <c r="E205" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>3.79462115149164</v>
+      </c>
+      <c r="C206" t="n">
+        <v>200</v>
+      </c>
+      <c r="D206" t="n">
+        <v>20</v>
+      </c>
+      <c r="E206" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.6667439830806927</v>
+      </c>
+      <c r="C207" t="n">
+        <v>200</v>
+      </c>
+      <c r="D207" t="n">
+        <v>20</v>
+      </c>
+      <c r="E207" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>4.130105493064434</v>
+      </c>
+      <c r="C208" t="n">
+        <v>200</v>
+      </c>
+      <c r="D208" t="n">
+        <v>20</v>
+      </c>
+      <c r="E208" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2.629493860473332</v>
+      </c>
+      <c r="C209" t="n">
+        <v>200</v>
+      </c>
+      <c r="D209" t="n">
+        <v>20</v>
+      </c>
+      <c r="E209" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.8985962567010972</v>
+      </c>
+      <c r="C210" t="n">
+        <v>200</v>
+      </c>
+      <c r="D210" t="n">
+        <v>20</v>
+      </c>
+      <c r="E210" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.7730626508929959</v>
+      </c>
+      <c r="C211" t="n">
+        <v>200</v>
+      </c>
+      <c r="D211" t="n">
+        <v>20</v>
+      </c>
+      <c r="E211" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>3.94237279988252</v>
+      </c>
+      <c r="C212" t="n">
+        <v>200</v>
+      </c>
+      <c r="D212" t="n">
+        <v>20</v>
+      </c>
+      <c r="E212" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.2659048588074597</v>
+      </c>
+      <c r="C213" t="n">
+        <v>200</v>
+      </c>
+      <c r="D213" t="n">
+        <v>20</v>
+      </c>
+      <c r="E213" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1.442274283172765</v>
+      </c>
+      <c r="C214" t="n">
+        <v>200</v>
+      </c>
+      <c r="D214" t="n">
+        <v>20</v>
+      </c>
+      <c r="E214" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>6.424622726907415</v>
+      </c>
+      <c r="C215" t="n">
+        <v>200</v>
+      </c>
+      <c r="D215" t="n">
+        <v>20</v>
+      </c>
+      <c r="E215" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.653228097307846</v>
+      </c>
+      <c r="C216" t="n">
+        <v>200</v>
+      </c>
+      <c r="D216" t="n">
+        <v>20</v>
+      </c>
+      <c r="E216" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>3.075452562697933</v>
+      </c>
+      <c r="C217" t="n">
+        <v>200</v>
+      </c>
+      <c r="D217" t="n">
+        <v>20</v>
+      </c>
+      <c r="E217" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>4.09227275009377</v>
+      </c>
+      <c r="C218" t="n">
+        <v>200</v>
+      </c>
+      <c r="D218" t="n">
+        <v>20</v>
+      </c>
+      <c r="E218" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1.385513310164697</v>
+      </c>
+      <c r="C219" t="n">
+        <v>200</v>
+      </c>
+      <c r="D219" t="n">
+        <v>20</v>
+      </c>
+      <c r="E219" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2.391115512112918</v>
+      </c>
+      <c r="C220" t="n">
+        <v>200</v>
+      </c>
+      <c r="D220" t="n">
+        <v>20</v>
+      </c>
+      <c r="E220" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.744829182238419</v>
+      </c>
+      <c r="C221" t="n">
+        <v>200</v>
+      </c>
+      <c r="D221" t="n">
+        <v>20</v>
+      </c>
+      <c r="E221" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1.03194330539722</v>
+      </c>
+      <c r="C222" t="n">
+        <v>200</v>
+      </c>
+      <c r="D222" t="n">
+        <v>20</v>
+      </c>
+      <c r="E222" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1.761687105026681</v>
+      </c>
+      <c r="C223" t="n">
+        <v>200</v>
+      </c>
+      <c r="D223" t="n">
+        <v>20</v>
+      </c>
+      <c r="E223" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>3.358981183167742</v>
+      </c>
+      <c r="C224" t="n">
+        <v>200</v>
+      </c>
+      <c r="D224" t="n">
+        <v>20</v>
+      </c>
+      <c r="E224" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1.786815302750739</v>
+      </c>
+      <c r="C225" t="n">
+        <v>200</v>
+      </c>
+      <c r="D225" t="n">
+        <v>20</v>
+      </c>
+      <c r="E225" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1.255629458081501</v>
+      </c>
+      <c r="C226" t="n">
+        <v>200</v>
+      </c>
+      <c r="D226" t="n">
+        <v>20</v>
+      </c>
+      <c r="E226" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1.319265217833163</v>
+      </c>
+      <c r="C227" t="n">
+        <v>200</v>
+      </c>
+      <c r="D227" t="n">
+        <v>20</v>
+      </c>
+      <c r="E227" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>2.482019871968816</v>
+      </c>
+      <c r="C228" t="n">
+        <v>200</v>
+      </c>
+      <c r="D228" t="n">
+        <v>20</v>
+      </c>
+      <c r="E228" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2.943609366747978</v>
+      </c>
+      <c r="C229" t="n">
+        <v>200</v>
+      </c>
+      <c r="D229" t="n">
+        <v>20</v>
+      </c>
+      <c r="E229" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>4.58181401123403</v>
+      </c>
+      <c r="C230" t="n">
+        <v>200</v>
+      </c>
+      <c r="D230" t="n">
+        <v>20</v>
+      </c>
+      <c r="E230" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2.202381528518629</v>
+      </c>
+      <c r="C231" t="n">
+        <v>200</v>
+      </c>
+      <c r="D231" t="n">
+        <v>20</v>
+      </c>
+      <c r="E231" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>3.07341366056977</v>
+      </c>
+      <c r="C232" t="n">
+        <v>200</v>
+      </c>
+      <c r="D232" t="n">
+        <v>20</v>
+      </c>
+      <c r="E232" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2.667350445499039</v>
+      </c>
+      <c r="C233" t="n">
+        <v>200</v>
+      </c>
+      <c r="D233" t="n">
+        <v>20</v>
+      </c>
+      <c r="E233" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>4.73333313377978</v>
+      </c>
+      <c r="C234" t="n">
+        <v>200</v>
+      </c>
+      <c r="D234" t="n">
+        <v>20</v>
+      </c>
+      <c r="E234" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.6858389618830074</v>
+      </c>
+      <c r="C235" t="n">
+        <v>200</v>
+      </c>
+      <c r="D235" t="n">
+        <v>20</v>
+      </c>
+      <c r="E235" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2.222713477610284</v>
+      </c>
+      <c r="C236" t="n">
+        <v>200</v>
+      </c>
+      <c r="D236" t="n">
+        <v>20</v>
+      </c>
+      <c r="E236" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>4.89909609958724</v>
+      </c>
+      <c r="C237" t="n">
+        <v>200</v>
+      </c>
+      <c r="D237" t="n">
+        <v>20</v>
+      </c>
+      <c r="E237" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.8111023885881821</v>
+      </c>
+      <c r="C238" t="n">
+        <v>200</v>
+      </c>
+      <c r="D238" t="n">
+        <v>20</v>
+      </c>
+      <c r="E238" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>10.79694325189112</v>
+      </c>
+      <c r="C239" t="n">
+        <v>200</v>
+      </c>
+      <c r="D239" t="n">
+        <v>20</v>
+      </c>
+      <c r="E239" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1.106182472555247</v>
+      </c>
+      <c r="C240" t="n">
+        <v>200</v>
+      </c>
+      <c r="D240" t="n">
+        <v>20</v>
+      </c>
+      <c r="E240" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>3.530837520322791</v>
+      </c>
+      <c r="C241" t="n">
+        <v>200</v>
+      </c>
+      <c r="D241" t="n">
+        <v>20</v>
+      </c>
+      <c r="E241" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>7.625745392395544</v>
+      </c>
+      <c r="C242" t="n">
+        <v>200</v>
+      </c>
+      <c r="D242" t="n">
+        <v>20</v>
+      </c>
+      <c r="E242" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1.565454522956799</v>
+      </c>
+      <c r="C243" t="n">
+        <v>200</v>
+      </c>
+      <c r="D243" t="n">
+        <v>20</v>
+      </c>
+      <c r="E243" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>3.732884147741629</v>
+      </c>
+      <c r="C244" t="n">
+        <v>200</v>
+      </c>
+      <c r="D244" t="n">
+        <v>20</v>
+      </c>
+      <c r="E244" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>5.030596635224128</v>
+      </c>
+      <c r="C245" t="n">
+        <v>200</v>
+      </c>
+      <c r="D245" t="n">
+        <v>20</v>
+      </c>
+      <c r="E245" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1.243929130562464</v>
+      </c>
+      <c r="C246" t="n">
+        <v>200</v>
+      </c>
+      <c r="D246" t="n">
+        <v>20</v>
+      </c>
+      <c r="E246" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.6216425791652966</v>
+      </c>
+      <c r="C247" t="n">
+        <v>200</v>
+      </c>
+      <c r="D247" t="n">
+        <v>20</v>
+      </c>
+      <c r="E247" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>4.18088602827126</v>
+      </c>
+      <c r="C248" t="n">
+        <v>200</v>
+      </c>
+      <c r="D248" t="n">
+        <v>20</v>
+      </c>
+      <c r="E248" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5">
+      <c r="A249" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>3.420322206492074</v>
+      </c>
+      <c r="C249" t="n">
+        <v>200</v>
+      </c>
+      <c r="D249" t="n">
+        <v>20</v>
+      </c>
+      <c r="E249" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5">
+      <c r="A250" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1.306024534571662</v>
+      </c>
+      <c r="C250" t="n">
+        <v>200</v>
+      </c>
+      <c r="D250" t="n">
+        <v>20</v>
+      </c>
+      <c r="E250" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5">
+      <c r="A251" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.8780684053605796</v>
+      </c>
+      <c r="C251" t="n">
+        <v>200</v>
+      </c>
+      <c r="D251" t="n">
+        <v>20</v>
+      </c>
+      <c r="E251" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>3.98400712244063</v>
+      </c>
+      <c r="C252" t="n">
+        <v>200</v>
+      </c>
+      <c r="D252" t="n">
+        <v>20</v>
+      </c>
+      <c r="E252" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5">
+      <c r="A253" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>4.256262828784827</v>
+      </c>
+      <c r="C253" t="n">
+        <v>200</v>
+      </c>
+      <c r="D253" t="n">
+        <v>20</v>
+      </c>
+      <c r="E253" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>5.662734866957607</v>
+      </c>
+      <c r="C254" t="n">
+        <v>200</v>
+      </c>
+      <c r="D254" t="n">
+        <v>20</v>
+      </c>
+      <c r="E254" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>6.338325979470653</v>
+      </c>
+      <c r="C255" t="n">
+        <v>200</v>
+      </c>
+      <c r="D255" t="n">
+        <v>20</v>
+      </c>
+      <c r="E255" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.8101082089348779</v>
+      </c>
+      <c r="C256" t="n">
+        <v>200</v>
+      </c>
+      <c r="D256" t="n">
+        <v>20</v>
+      </c>
+      <c r="E256" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>10.76387623220265</v>
+      </c>
+      <c r="C257" t="n">
+        <v>200</v>
+      </c>
+      <c r="D257" t="n">
+        <v>20</v>
+      </c>
+      <c r="E257" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>3.58960757571279</v>
+      </c>
+      <c r="C258" t="n">
+        <v>200</v>
+      </c>
+      <c r="D258" t="n">
+        <v>20</v>
+      </c>
+      <c r="E258" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.7427436341930616</v>
+      </c>
+      <c r="C259" t="n">
+        <v>200</v>
+      </c>
+      <c r="D259" t="n">
+        <v>20</v>
+      </c>
+      <c r="E259" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1.467115487655434</v>
+      </c>
+      <c r="C260" t="n">
+        <v>200</v>
+      </c>
+      <c r="D260" t="n">
+        <v>20</v>
+      </c>
+      <c r="E260" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>4.230962361607737</v>
+      </c>
+      <c r="C261" t="n">
+        <v>200</v>
+      </c>
+      <c r="D261" t="n">
+        <v>20</v>
+      </c>
+      <c r="E261" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.5324724128776097</v>
+      </c>
+      <c r="C262" t="n">
+        <v>200</v>
+      </c>
+      <c r="D262" t="n">
+        <v>20</v>
+      </c>
+      <c r="E262" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1.465574903267168</v>
+      </c>
+      <c r="C263" t="n">
+        <v>200</v>
+      </c>
+      <c r="D263" t="n">
+        <v>20</v>
+      </c>
+      <c r="E263" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>8.606046946015368</v>
+      </c>
+      <c r="C264" t="n">
+        <v>200</v>
+      </c>
+      <c r="D264" t="n">
+        <v>20</v>
+      </c>
+      <c r="E264" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>2.425787145396811</v>
+      </c>
+      <c r="C265" t="n">
+        <v>200</v>
+      </c>
+      <c r="D265" t="n">
+        <v>20</v>
+      </c>
+      <c r="E265" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>2.442761613701947</v>
+      </c>
+      <c r="C266" t="n">
+        <v>200</v>
+      </c>
+      <c r="D266" t="n">
+        <v>20</v>
+      </c>
+      <c r="E266" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1.218982480079148</v>
+      </c>
+      <c r="C267" t="n">
+        <v>200</v>
+      </c>
+      <c r="D267" t="n">
+        <v>20</v>
+      </c>
+      <c r="E267" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>4.187086338813543</v>
+      </c>
+      <c r="C268" t="n">
+        <v>200</v>
+      </c>
+      <c r="D268" t="n">
+        <v>20</v>
+      </c>
+      <c r="E268" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.3333174060870192</v>
+      </c>
+      <c r="C269" t="n">
+        <v>200</v>
+      </c>
+      <c r="D269" t="n">
+        <v>20</v>
+      </c>
+      <c r="E269" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>2.759679281219576</v>
+      </c>
+      <c r="C270" t="n">
+        <v>200</v>
+      </c>
+      <c r="D270" t="n">
+        <v>20</v>
+      </c>
+      <c r="E270" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>3.086317836037608</v>
+      </c>
+      <c r="C271" t="n">
+        <v>200</v>
+      </c>
+      <c r="D271" t="n">
+        <v>20</v>
+      </c>
+      <c r="E271" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1.799661117829856</v>
+      </c>
+      <c r="C272" t="n">
+        <v>200</v>
+      </c>
+      <c r="D272" t="n">
+        <v>20</v>
+      </c>
+      <c r="E272" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>4.005700099515963</v>
+      </c>
+      <c r="C273" t="n">
+        <v>200</v>
+      </c>
+      <c r="D273" t="n">
+        <v>20</v>
+      </c>
+      <c r="E273" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>3.186602744050219</v>
+      </c>
+      <c r="C274" t="n">
+        <v>200</v>
+      </c>
+      <c r="D274" t="n">
+        <v>20</v>
+      </c>
+      <c r="E274" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>4.156769026680735</v>
+      </c>
+      <c r="C275" t="n">
+        <v>200</v>
+      </c>
+      <c r="D275" t="n">
+        <v>20</v>
+      </c>
+      <c r="E275" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1.299666179309725</v>
+      </c>
+      <c r="C276" t="n">
+        <v>200</v>
+      </c>
+      <c r="D276" t="n">
+        <v>20</v>
+      </c>
+      <c r="E276" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>3.460612375943526</v>
+      </c>
+      <c r="C277" t="n">
+        <v>200</v>
+      </c>
+      <c r="D277" t="n">
+        <v>20</v>
+      </c>
+      <c r="E277" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>3.247142228260827</v>
+      </c>
+      <c r="C278" t="n">
+        <v>200</v>
+      </c>
+      <c r="D278" t="n">
+        <v>20</v>
+      </c>
+      <c r="E278" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.8251899873047535</v>
+      </c>
+      <c r="C279" t="n">
+        <v>200</v>
+      </c>
+      <c r="D279" t="n">
+        <v>20</v>
+      </c>
+      <c r="E279" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>3.996562432003628</v>
+      </c>
+      <c r="C280" t="n">
+        <v>200</v>
+      </c>
+      <c r="D280" t="n">
+        <v>20</v>
+      </c>
+      <c r="E280" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>3.469402461132773</v>
+      </c>
+      <c r="C281" t="n">
+        <v>200</v>
+      </c>
+      <c r="D281" t="n">
+        <v>20</v>
+      </c>
+      <c r="E281" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="n">
+        <v>4.270105648926716</v>
+      </c>
+      <c r="C282" t="n">
+        <v>200</v>
+      </c>
+      <c r="D282" t="n">
+        <v>20</v>
+      </c>
+      <c r="E282" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1.488297669308707</v>
+      </c>
+      <c r="C283" t="n">
+        <v>200</v>
+      </c>
+      <c r="D283" t="n">
+        <v>20</v>
+      </c>
+      <c r="E283" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>1.383619997171849</v>
+      </c>
+      <c r="C284" t="n">
+        <v>200</v>
+      </c>
+      <c r="D284" t="n">
+        <v>20</v>
+      </c>
+      <c r="E284" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>3.247444609469426</v>
+      </c>
+      <c r="C285" t="n">
+        <v>200</v>
+      </c>
+      <c r="D285" t="n">
+        <v>20</v>
+      </c>
+      <c r="E285" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>2.038932897669326</v>
+      </c>
+      <c r="C286" t="n">
+        <v>200</v>
+      </c>
+      <c r="D286" t="n">
+        <v>20</v>
+      </c>
+      <c r="E286" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>5.985349181882782</v>
+      </c>
+      <c r="C287" t="n">
+        <v>200</v>
+      </c>
+      <c r="D287" t="n">
+        <v>20</v>
+      </c>
+      <c r="E287" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>2.92967015654861</v>
+      </c>
+      <c r="C288" t="n">
+        <v>200</v>
+      </c>
+      <c r="D288" t="n">
+        <v>20</v>
+      </c>
+      <c r="E288" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="n">
+        <v>2.921220595646616</v>
+      </c>
+      <c r="C289" t="n">
+        <v>200</v>
+      </c>
+      <c r="D289" t="n">
+        <v>20</v>
+      </c>
+      <c r="E289" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>1.729682062932795</v>
+      </c>
+      <c r="C290" t="n">
+        <v>200</v>
+      </c>
+      <c r="D290" t="n">
+        <v>20</v>
+      </c>
+      <c r="E290" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>6.248886398562689</v>
+      </c>
+      <c r="C291" t="n">
+        <v>200</v>
+      </c>
+      <c r="D291" t="n">
+        <v>20</v>
+      </c>
+      <c r="E291" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>1.021081147869154</v>
+      </c>
+      <c r="C292" t="n">
+        <v>200</v>
+      </c>
+      <c r="D292" t="n">
+        <v>20</v>
+      </c>
+      <c r="E292" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>2.736091589149424</v>
+      </c>
+      <c r="C293" t="n">
+        <v>200</v>
+      </c>
+      <c r="D293" t="n">
+        <v>20</v>
+      </c>
+      <c r="E293" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="n">
+        <v>2.231512382606098</v>
+      </c>
+      <c r="C294" t="n">
+        <v>200</v>
+      </c>
+      <c r="D294" t="n">
+        <v>20</v>
+      </c>
+      <c r="E294" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="n">
+        <v>6.351960930297878</v>
+      </c>
+      <c r="C295" t="n">
+        <v>200</v>
+      </c>
+      <c r="D295" t="n">
+        <v>20</v>
+      </c>
+      <c r="E295" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>2.854364018257542</v>
+      </c>
+      <c r="C296" t="n">
+        <v>200</v>
+      </c>
+      <c r="D296" t="n">
+        <v>20</v>
+      </c>
+      <c r="E296" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="n">
+        <v>4.478996837033662</v>
+      </c>
+      <c r="C297" t="n">
+        <v>200</v>
+      </c>
+      <c r="D297" t="n">
+        <v>20</v>
+      </c>
+      <c r="E297" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.2806848635678136</v>
+      </c>
+      <c r="C298" t="n">
+        <v>200</v>
+      </c>
+      <c r="D298" t="n">
+        <v>20</v>
+      </c>
+      <c r="E298" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="n">
+        <v>1.450354849890147</v>
+      </c>
+      <c r="C299" t="n">
+        <v>200</v>
+      </c>
+      <c r="D299" t="n">
+        <v>20</v>
+      </c>
+      <c r="E299" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="n">
+        <v>1.19403670838912</v>
+      </c>
+      <c r="C300" t="n">
+        <v>200</v>
+      </c>
+      <c r="D300" t="n">
+        <v>20</v>
+      </c>
+      <c r="E300" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="n">
+        <v>2.058709824258528</v>
+      </c>
+      <c r="C301" t="n">
+        <v>200</v>
+      </c>
+      <c r="D301" t="n">
+        <v>20</v>
+      </c>
+      <c r="E301" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.5057738104686109</v>
+      </c>
+      <c r="C302" t="n">
+        <v>200</v>
+      </c>
+      <c r="D302" t="n">
+        <v>20</v>
+      </c>
+      <c r="E302" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.3929674824188396</v>
+      </c>
+      <c r="C303" t="n">
+        <v>200</v>
+      </c>
+      <c r="D303" t="n">
+        <v>20</v>
+      </c>
+      <c r="E303" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="n">
+        <v>3.598108834587208</v>
+      </c>
+      <c r="C304" t="n">
+        <v>200</v>
+      </c>
+      <c r="D304" t="n">
+        <v>20</v>
+      </c>
+      <c r="E304" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="n">
+        <v>2.637346547509367</v>
+      </c>
+      <c r="C305" t="n">
+        <v>200</v>
+      </c>
+      <c r="D305" t="n">
+        <v>20</v>
+      </c>
+      <c r="E305" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="n">
+        <v>4.132533082849193</v>
+      </c>
+      <c r="C306" t="n">
+        <v>200</v>
+      </c>
+      <c r="D306" t="n">
+        <v>20</v>
+      </c>
+      <c r="E306" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="n">
+        <v>5.042207482899329</v>
+      </c>
+      <c r="C307" t="n">
+        <v>200</v>
+      </c>
+      <c r="D307" t="n">
+        <v>20</v>
+      </c>
+      <c r="E307" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="n">
+        <v>6.384830752489137</v>
+      </c>
+      <c r="C308" t="n">
+        <v>200</v>
+      </c>
+      <c r="D308" t="n">
+        <v>20</v>
+      </c>
+      <c r="E308" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="n">
+        <v>3.76434751205062</v>
+      </c>
+      <c r="C309" t="n">
+        <v>200</v>
+      </c>
+      <c r="D309" t="n">
+        <v>20</v>
+      </c>
+      <c r="E309" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="n">
+        <v>1.060940818836571</v>
+      </c>
+      <c r="C310" t="n">
+        <v>200</v>
+      </c>
+      <c r="D310" t="n">
+        <v>20</v>
+      </c>
+      <c r="E310" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0.6131275835213614</v>
+      </c>
+      <c r="C311" t="n">
+        <v>200</v>
+      </c>
+      <c r="D311" t="n">
+        <v>20</v>
+      </c>
+      <c r="E311" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="n">
+        <v>2.904195106625764</v>
+      </c>
+      <c r="C312" t="n">
+        <v>200</v>
+      </c>
+      <c r="D312" t="n">
+        <v>20</v>
+      </c>
+      <c r="E312" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="n">
+        <v>3.141237265600694</v>
+      </c>
+      <c r="C313" t="n">
+        <v>200</v>
+      </c>
+      <c r="D313" t="n">
+        <v>20</v>
+      </c>
+      <c r="E313" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="n">
+        <v>3.140614898642156</v>
+      </c>
+      <c r="C314" t="n">
+        <v>200</v>
+      </c>
+      <c r="D314" t="n">
+        <v>20</v>
+      </c>
+      <c r="E314" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="n">
+        <v>2.83739819015733</v>
+      </c>
+      <c r="C315" t="n">
+        <v>200</v>
+      </c>
+      <c r="D315" t="n">
+        <v>20</v>
+      </c>
+      <c r="E315" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="n">
+        <v>3.78557489625598</v>
+      </c>
+      <c r="C316" t="n">
+        <v>200</v>
+      </c>
+      <c r="D316" t="n">
+        <v>20</v>
+      </c>
+      <c r="E316" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="n">
+        <v>3.251473368982772</v>
+      </c>
+      <c r="C317" t="n">
+        <v>200</v>
+      </c>
+      <c r="D317" t="n">
+        <v>20</v>
+      </c>
+      <c r="E317" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.6977455855496828</v>
+      </c>
+      <c r="C318" t="n">
+        <v>200</v>
+      </c>
+      <c r="D318" t="n">
+        <v>20</v>
+      </c>
+      <c r="E318" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="n">
+        <v>2.483614352661135</v>
+      </c>
+      <c r="C319" t="n">
+        <v>200</v>
+      </c>
+      <c r="D319" t="n">
+        <v>20</v>
+      </c>
+      <c r="E319" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="n">
+        <v>5.428186918401309</v>
+      </c>
+      <c r="C320" t="n">
+        <v>200</v>
+      </c>
+      <c r="D320" t="n">
+        <v>20</v>
+      </c>
+      <c r="E320" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="n">
+        <v>1.732674398843329</v>
+      </c>
+      <c r="C321" t="n">
+        <v>200</v>
+      </c>
+      <c r="D321" t="n">
+        <v>20</v>
+      </c>
+      <c r="E321" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" t="n">
+        <v>1.600541076211243</v>
+      </c>
+      <c r="C322" t="n">
+        <v>200</v>
+      </c>
+      <c r="D322" t="n">
+        <v>20</v>
+      </c>
+      <c r="E322" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B323" t="n">
+        <v>1.140514933185671</v>
+      </c>
+      <c r="C323" t="n">
+        <v>200</v>
+      </c>
+      <c r="D323" t="n">
+        <v>20</v>
+      </c>
+      <c r="E323" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B324" t="n">
+        <v>1.476881776248121</v>
+      </c>
+      <c r="C324" t="n">
+        <v>200</v>
+      </c>
+      <c r="D324" t="n">
+        <v>20</v>
+      </c>
+      <c r="E324" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B325" t="n">
+        <v>2.024705862748505</v>
+      </c>
+      <c r="C325" t="n">
+        <v>200</v>
+      </c>
+      <c r="D325" t="n">
+        <v>20</v>
+      </c>
+      <c r="E325" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B326" t="n">
+        <v>2.397846702541869</v>
+      </c>
+      <c r="C326" t="n">
+        <v>200</v>
+      </c>
+      <c r="D326" t="n">
+        <v>20</v>
+      </c>
+      <c r="E326" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" t="n">
+        <v>8.66206421533002</v>
+      </c>
+      <c r="C327" t="n">
+        <v>200</v>
+      </c>
+      <c r="D327" t="n">
+        <v>20</v>
+      </c>
+      <c r="E327" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0.6114871020182875</v>
+      </c>
+      <c r="C328" t="n">
+        <v>200</v>
+      </c>
+      <c r="D328" t="n">
+        <v>20</v>
+      </c>
+      <c r="E328" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" t="n">
+        <v>3.614019401683606</v>
+      </c>
+      <c r="C329" t="n">
+        <v>200</v>
+      </c>
+      <c r="D329" t="n">
+        <v>20</v>
+      </c>
+      <c r="E329" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" t="n">
+        <v>4.888200807691419</v>
+      </c>
+      <c r="C330" t="n">
+        <v>200</v>
+      </c>
+      <c r="D330" t="n">
+        <v>20</v>
+      </c>
+      <c r="E330" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="n">
+        <v>2.319490381767451</v>
+      </c>
+      <c r="C331" t="n">
+        <v>200</v>
+      </c>
+      <c r="D331" t="n">
+        <v>20</v>
+      </c>
+      <c r="E331" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.7965664267407249</v>
+      </c>
+      <c r="C332" t="n">
+        <v>200</v>
+      </c>
+      <c r="D332" t="n">
+        <v>20</v>
+      </c>
+      <c r="E332" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.4338532159162298</v>
+      </c>
+      <c r="C333" t="n">
+        <v>200</v>
+      </c>
+      <c r="D333" t="n">
+        <v>20</v>
+      </c>
+      <c r="E333" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="n">
+        <v>4.590916069727712</v>
+      </c>
+      <c r="C334" t="n">
+        <v>200</v>
+      </c>
+      <c r="D334" t="n">
+        <v>20</v>
+      </c>
+      <c r="E334" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="n">
+        <v>2.198997423853882</v>
+      </c>
+      <c r="C335" t="n">
+        <v>200</v>
+      </c>
+      <c r="D335" t="n">
+        <v>20</v>
+      </c>
+      <c r="E335" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="n">
+        <v>4.188445234685304</v>
+      </c>
+      <c r="C336" t="n">
+        <v>200</v>
+      </c>
+      <c r="D336" t="n">
+        <v>20</v>
+      </c>
+      <c r="E336" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="n">
+        <v>3.374041810483021</v>
+      </c>
+      <c r="C337" t="n">
+        <v>200</v>
+      </c>
+      <c r="D337" t="n">
+        <v>20</v>
+      </c>
+      <c r="E337" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="n">
+        <v>4.393031352966062</v>
+      </c>
+      <c r="C338" t="n">
+        <v>200</v>
+      </c>
+      <c r="D338" t="n">
+        <v>20</v>
+      </c>
+      <c r="E338" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" t="n">
+        <v>5.751369316569395</v>
+      </c>
+      <c r="C339" t="n">
+        <v>200</v>
+      </c>
+      <c r="D339" t="n">
+        <v>20</v>
+      </c>
+      <c r="E339" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" t="n">
+        <v>2.201670874758605</v>
+      </c>
+      <c r="C340" t="n">
+        <v>200</v>
+      </c>
+      <c r="D340" t="n">
+        <v>20</v>
+      </c>
+      <c r="E340" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="n">
+        <v>3.689658036451277</v>
+      </c>
+      <c r="C341" t="n">
+        <v>200</v>
+      </c>
+      <c r="D341" t="n">
+        <v>20</v>
+      </c>
+      <c r="E341" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="n">
+        <v>6.337448359700005</v>
+      </c>
+      <c r="C342" t="n">
+        <v>200</v>
+      </c>
+      <c r="D342" t="n">
+        <v>20</v>
+      </c>
+      <c r="E342" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0.2721380175022432</v>
+      </c>
+      <c r="C343" t="n">
+        <v>200</v>
+      </c>
+      <c r="D343" t="n">
+        <v>20</v>
+      </c>
+      <c r="E343" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" t="n">
+        <v>3.611940804976257</v>
+      </c>
+      <c r="C344" t="n">
+        <v>200</v>
+      </c>
+      <c r="D344" t="n">
+        <v>20</v>
+      </c>
+      <c r="E344" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B345" t="n">
+        <v>5.724773845341218</v>
+      </c>
+      <c r="C345" t="n">
+        <v>200</v>
+      </c>
+      <c r="D345" t="n">
+        <v>20</v>
+      </c>
+      <c r="E345" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0.871980077818364</v>
+      </c>
+      <c r="C346" t="n">
+        <v>200</v>
+      </c>
+      <c r="D346" t="n">
+        <v>20</v>
+      </c>
+      <c r="E346" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B347" t="n">
+        <v>4.134323019884221</v>
+      </c>
+      <c r="C347" t="n">
+        <v>200</v>
+      </c>
+      <c r="D347" t="n">
+        <v>20</v>
+      </c>
+      <c r="E347" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B348" t="n">
+        <v>3.109030657693495</v>
+      </c>
+      <c r="C348" t="n">
+        <v>200</v>
+      </c>
+      <c r="D348" t="n">
+        <v>20</v>
+      </c>
+      <c r="E348" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B349" t="n">
+        <v>3.117164490480661</v>
+      </c>
+      <c r="C349" t="n">
+        <v>200</v>
+      </c>
+      <c r="D349" t="n">
+        <v>20</v>
+      </c>
+      <c r="E349" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" t="n">
+        <v>1.303567677448228</v>
+      </c>
+      <c r="C350" t="n">
+        <v>200</v>
+      </c>
+      <c r="D350" t="n">
+        <v>20</v>
+      </c>
+      <c r="E350" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" t="n">
+        <v>4.999808590024486</v>
+      </c>
+      <c r="C351" t="n">
+        <v>200</v>
+      </c>
+      <c r="D351" t="n">
+        <v>20</v>
+      </c>
+      <c r="E351" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" t="n">
+        <v>3.671428152756022</v>
+      </c>
+      <c r="C352" t="n">
+        <v>200</v>
+      </c>
+      <c r="D352" t="n">
+        <v>20</v>
+      </c>
+      <c r="E352" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0.6790637588401864</v>
+      </c>
+      <c r="C353" t="n">
+        <v>200</v>
+      </c>
+      <c r="D353" t="n">
+        <v>20</v>
+      </c>
+      <c r="E353" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" t="n">
+        <v>2.183514588510548</v>
+      </c>
+      <c r="C354" t="n">
+        <v>200</v>
+      </c>
+      <c r="D354" t="n">
+        <v>20</v>
+      </c>
+      <c r="E354" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" t="n">
+        <v>2.069557610297721</v>
+      </c>
+      <c r="C355" t="n">
+        <v>200</v>
+      </c>
+      <c r="D355" t="n">
+        <v>20</v>
+      </c>
+      <c r="E355" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" t="n">
+        <v>5.991240041937317</v>
+      </c>
+      <c r="C356" t="n">
+        <v>200</v>
+      </c>
+      <c r="D356" t="n">
+        <v>20</v>
+      </c>
+      <c r="E356" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" t="n">
+        <v>6.768444901229827</v>
+      </c>
+      <c r="C357" t="n">
+        <v>200</v>
+      </c>
+      <c r="D357" t="n">
+        <v>20</v>
+      </c>
+      <c r="E357" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" t="n">
+        <v>1.697536520407596</v>
+      </c>
+      <c r="C358" t="n">
+        <v>200</v>
+      </c>
+      <c r="D358" t="n">
+        <v>20</v>
+      </c>
+      <c r="E358" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.988738813428057</v>
+      </c>
+      <c r="C359" t="n">
+        <v>200</v>
+      </c>
+      <c r="D359" t="n">
+        <v>20</v>
+      </c>
+      <c r="E359" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B360" t="n">
+        <v>7.013525208383726</v>
+      </c>
+      <c r="C360" t="n">
+        <v>200</v>
+      </c>
+      <c r="D360" t="n">
+        <v>20</v>
+      </c>
+      <c r="E360" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" t="n">
+        <v>1.10416700218741</v>
+      </c>
+      <c r="C361" t="n">
+        <v>200</v>
+      </c>
+      <c r="D361" t="n">
+        <v>20</v>
+      </c>
+      <c r="E361" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B362" t="n">
+        <v>3.18016922235563</v>
+      </c>
+      <c r="C362" t="n">
+        <v>200</v>
+      </c>
+      <c r="D362" t="n">
+        <v>20</v>
+      </c>
+      <c r="E362" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B363" t="n">
+        <v>1.651992342111441</v>
+      </c>
+      <c r="C363" t="n">
+        <v>200</v>
+      </c>
+      <c r="D363" t="n">
+        <v>20</v>
+      </c>
+      <c r="E363" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0.06723451752537812</v>
+      </c>
+      <c r="C364" t="n">
+        <v>200</v>
+      </c>
+      <c r="D364" t="n">
+        <v>20</v>
+      </c>
+      <c r="E364" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0.887961748369861</v>
+      </c>
+      <c r="C365" t="n">
+        <v>200</v>
+      </c>
+      <c r="D365" t="n">
+        <v>20</v>
+      </c>
+      <c r="E365" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B366" t="n">
+        <v>1.344205643410021</v>
+      </c>
+      <c r="C366" t="n">
+        <v>200</v>
+      </c>
+      <c r="D366" t="n">
+        <v>20</v>
+      </c>
+      <c r="E366" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B367" t="n">
+        <v>4.960955079070999</v>
+      </c>
+      <c r="C367" t="n">
+        <v>200</v>
+      </c>
+      <c r="D367" t="n">
+        <v>20</v>
+      </c>
+      <c r="E367" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B368" t="n">
+        <v>4.823283283025262</v>
+      </c>
+      <c r="C368" t="n">
+        <v>200</v>
+      </c>
+      <c r="D368" t="n">
+        <v>20</v>
+      </c>
+      <c r="E368" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B369" t="n">
+        <v>6.147451398858891</v>
+      </c>
+      <c r="C369" t="n">
+        <v>200</v>
+      </c>
+      <c r="D369" t="n">
+        <v>20</v>
+      </c>
+      <c r="E369" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B370" t="n">
+        <v>3.436454905280129</v>
+      </c>
+      <c r="C370" t="n">
+        <v>200</v>
+      </c>
+      <c r="D370" t="n">
+        <v>20</v>
+      </c>
+      <c r="E370" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B371" t="n">
+        <v>5.507302629734795</v>
+      </c>
+      <c r="C371" t="n">
+        <v>200</v>
+      </c>
+      <c r="D371" t="n">
+        <v>20</v>
+      </c>
+      <c r="E371" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B372" t="n">
+        <v>1.039777901950828</v>
+      </c>
+      <c r="C372" t="n">
+        <v>200</v>
+      </c>
+      <c r="D372" t="n">
+        <v>20</v>
+      </c>
+      <c r="E372" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B373" t="n">
+        <v>5.39417373923996</v>
+      </c>
+      <c r="C373" t="n">
+        <v>200</v>
+      </c>
+      <c r="D373" t="n">
+        <v>20</v>
+      </c>
+      <c r="E373" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B374" t="n">
+        <v>1.835005478184456</v>
+      </c>
+      <c r="C374" t="n">
+        <v>200</v>
+      </c>
+      <c r="D374" t="n">
+        <v>20</v>
+      </c>
+      <c r="E374" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B375" t="n">
+        <v>2.426050500991067</v>
+      </c>
+      <c r="C375" t="n">
+        <v>200</v>
+      </c>
+      <c r="D375" t="n">
+        <v>20</v>
+      </c>
+      <c r="E375" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B376" t="n">
+        <v>5.910071384311038</v>
+      </c>
+      <c r="C376" t="n">
+        <v>200</v>
+      </c>
+      <c r="D376" t="n">
+        <v>20</v>
+      </c>
+      <c r="E376" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B377" t="n">
+        <v>7.382191880806204</v>
+      </c>
+      <c r="C377" t="n">
+        <v>200</v>
+      </c>
+      <c r="D377" t="n">
+        <v>20</v>
+      </c>
+      <c r="E377" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B378" t="n">
+        <v>2.224992727855039</v>
+      </c>
+      <c r="C378" t="n">
+        <v>200</v>
+      </c>
+      <c r="D378" t="n">
+        <v>20</v>
+      </c>
+      <c r="E378" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B379" t="n">
+        <v>2.551850687041792</v>
+      </c>
+      <c r="C379" t="n">
+        <v>200</v>
+      </c>
+      <c r="D379" t="n">
+        <v>20</v>
+      </c>
+      <c r="E379" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B380" t="n">
+        <v>3.728895998908058</v>
+      </c>
+      <c r="C380" t="n">
+        <v>200</v>
+      </c>
+      <c r="D380" t="n">
+        <v>20</v>
+      </c>
+      <c r="E380" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B381" t="n">
+        <v>3.999204677736714</v>
+      </c>
+      <c r="C381" t="n">
+        <v>200</v>
+      </c>
+      <c r="D381" t="n">
+        <v>20</v>
+      </c>
+      <c r="E381" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B382" t="n">
+        <v>5.389184844141056</v>
+      </c>
+      <c r="C382" t="n">
+        <v>200</v>
+      </c>
+      <c r="D382" t="n">
+        <v>20</v>
+      </c>
+      <c r="E382" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B383" t="n">
+        <v>3.300757680791065</v>
+      </c>
+      <c r="C383" t="n">
+        <v>200</v>
+      </c>
+      <c r="D383" t="n">
+        <v>20</v>
+      </c>
+      <c r="E383" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B384" t="n">
+        <v>2.755124137228677</v>
+      </c>
+      <c r="C384" t="n">
+        <v>200</v>
+      </c>
+      <c r="D384" t="n">
+        <v>20</v>
+      </c>
+      <c r="E384" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B385" t="n">
+        <v>1.634555468591572</v>
+      </c>
+      <c r="C385" t="n">
+        <v>200</v>
+      </c>
+      <c r="D385" t="n">
+        <v>20</v>
+      </c>
+      <c r="E385" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B386" t="n">
+        <v>6.449607412628694</v>
+      </c>
+      <c r="C386" t="n">
+        <v>200</v>
+      </c>
+      <c r="D386" t="n">
+        <v>20</v>
+      </c>
+      <c r="E386" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B387" t="n">
+        <v>2.973723115800681</v>
+      </c>
+      <c r="C387" t="n">
+        <v>200</v>
+      </c>
+      <c r="D387" t="n">
+        <v>20</v>
+      </c>
+      <c r="E387" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B388" t="n">
+        <v>5.390239032411387</v>
+      </c>
+      <c r="C388" t="n">
+        <v>200</v>
+      </c>
+      <c r="D388" t="n">
+        <v>20</v>
+      </c>
+      <c r="E388" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B389" t="n">
+        <v>9.458111165989322</v>
+      </c>
+      <c r="C389" t="n">
+        <v>200</v>
+      </c>
+      <c r="D389" t="n">
+        <v>20</v>
+      </c>
+      <c r="E389" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B390" t="n">
+        <v>1.86637036464802</v>
+      </c>
+      <c r="C390" t="n">
+        <v>200</v>
+      </c>
+      <c r="D390" t="n">
+        <v>20</v>
+      </c>
+      <c r="E390" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0.5724326831693531</v>
+      </c>
+      <c r="C391" t="n">
+        <v>200</v>
+      </c>
+      <c r="D391" t="n">
+        <v>20</v>
+      </c>
+      <c r="E391" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B392" t="n">
+        <v>4.677865113889567</v>
+      </c>
+      <c r="C392" t="n">
+        <v>200</v>
+      </c>
+      <c r="D392" t="n">
+        <v>20</v>
+      </c>
+      <c r="E392" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0.345411253029738</v>
+      </c>
+      <c r="C393" t="n">
+        <v>200</v>
+      </c>
+      <c r="D393" t="n">
+        <v>20</v>
+      </c>
+      <c r="E393" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0.333809324122285</v>
+      </c>
+      <c r="C394" t="n">
+        <v>200</v>
+      </c>
+      <c r="D394" t="n">
+        <v>20</v>
+      </c>
+      <c r="E394" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B395" t="n">
+        <v>5.555299834931247</v>
+      </c>
+      <c r="C395" t="n">
+        <v>200</v>
+      </c>
+      <c r="D395" t="n">
+        <v>20</v>
+      </c>
+      <c r="E395" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B396" t="n">
+        <v>2.083061057612611</v>
+      </c>
+      <c r="C396" t="n">
+        <v>200</v>
+      </c>
+      <c r="D396" t="n">
+        <v>20</v>
+      </c>
+      <c r="E396" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B397" t="n">
+        <v>2.189832977695886</v>
+      </c>
+      <c r="C397" t="n">
+        <v>200</v>
+      </c>
+      <c r="D397" t="n">
+        <v>20</v>
+      </c>
+      <c r="E397" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B398" t="n">
+        <v>4.329854877902562</v>
+      </c>
+      <c r="C398" t="n">
+        <v>200</v>
+      </c>
+      <c r="D398" t="n">
+        <v>20</v>
+      </c>
+      <c r="E398" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B399" t="n">
+        <v>4.482014744503488</v>
+      </c>
+      <c r="C399" t="n">
+        <v>200</v>
+      </c>
+      <c r="D399" t="n">
+        <v>20</v>
+      </c>
+      <c r="E399" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0.2487482448741218</v>
+      </c>
+      <c r="C400" t="n">
+        <v>200</v>
+      </c>
+      <c r="D400" t="n">
+        <v>20</v>
+      </c>
+      <c r="E400" t="b">
         <v>1</v>
       </c>
     </row>
